--- a/capiq_data/in_process_data/IQ300753.xlsx
+++ b/capiq_data/in_process_data/IQ300753.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A206CB-8233-42F7-817E-C16FFE440EA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68F721C-1CCE-49F7-969E-143829291A4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"5037a31e-924b-46bd-a91e-fc1ace88031f"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"672512ed-5ffb-429c-a76a-42e29328187b"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>19.206</v>
+        <v>-1.7090000000000001</v>
       </c>
       <c r="D2">
-        <v>279.928</v>
+        <v>147.107</v>
       </c>
       <c r="E2">
-        <v>70.433000000000007</v>
+        <v>50.098999999999997</v>
       </c>
       <c r="F2">
-        <v>132.30600000000001</v>
+        <v>59.27</v>
       </c>
       <c r="G2">
-        <v>151.02099999999999</v>
+        <v>88.968999999999994</v>
       </c>
       <c r="H2">
-        <v>619.01400000000001</v>
+        <v>298.81900000000002</v>
       </c>
       <c r="I2">
-        <v>25.94</v>
+        <v>13.077999999999999</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>26</v>
+        <v>1.4</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,120 +892,120 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>246.441</v>
+        <v>103.62</v>
       </c>
       <c r="O2">
-        <v>321.04399999999998</v>
+        <v>220.22</v>
       </c>
       <c r="P2">
-        <v>26</v>
+        <v>3.4849999999999999</v>
       </c>
       <c r="Q2">
-        <v>0.66300000000000003</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>10330</v>
+        <v>9000</v>
       </c>
       <c r="T2">
-        <v>297.97000000000003</v>
+        <v>78.599000000000004</v>
       </c>
       <c r="U2">
-        <v>20.913</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="V2">
-        <v>31.634</v>
+        <v>8.5510000000000002</v>
       </c>
       <c r="W2">
-        <v>-8.8089999999999993</v>
+        <v>-1.5029999999999999</v>
       </c>
       <c r="X2">
-        <v>-11.241</v>
+        <v>-5.4279999999999999</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>19.206</v>
+        <v>-1.7090000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>18.64</v>
+        <v>2.0209999999999999</v>
       </c>
       <c r="D3">
-        <v>271.64299999999997</v>
+        <v>150.97300000000001</v>
       </c>
       <c r="E3">
-        <v>69.524000000000001</v>
+        <v>46.749000000000002</v>
       </c>
       <c r="F3">
-        <v>130.745</v>
+        <v>64.698999999999998</v>
       </c>
       <c r="G3">
-        <v>147.244</v>
+        <v>90.028999999999996</v>
       </c>
       <c r="H3">
-        <v>614.20500000000004</v>
+        <v>296.33600000000001</v>
       </c>
       <c r="I3">
-        <v>23.081</v>
+        <v>14.169</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>-5.5</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-0.02</v>
+        <v>-2.1</v>
       </c>
       <c r="N3">
-        <v>241.916</v>
+        <v>108.973</v>
       </c>
       <c r="O3">
-        <v>312.98500000000001</v>
+        <v>215.124</v>
       </c>
       <c r="P3">
-        <v>25</v>
+        <v>1.385</v>
       </c>
       <c r="Q3">
-        <v>2.427</v>
+        <v>5.9889999999999999</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>301.22000000000003</v>
+        <v>81.212000000000003</v>
       </c>
       <c r="U3">
-        <v>23.34</v>
+        <v>6.3879999999999999</v>
       </c>
       <c r="V3">
-        <v>32.954000000000001</v>
+        <v>11.336</v>
       </c>
       <c r="W3">
-        <v>-10.318</v>
+        <v>-1.5089999999999999</v>
       </c>
       <c r="X3">
-        <v>-23.478000000000002</v>
+        <v>-3.605</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,42 +1014,42 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>18.64</v>
+        <v>2.0209999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>31.061</v>
+        <v>9.0380000000000003</v>
       </c>
       <c r="D4">
-        <v>320.43599999999998</v>
+        <v>181.34899999999999</v>
       </c>
       <c r="E4">
-        <v>83.525000000000006</v>
+        <v>54.75</v>
       </c>
       <c r="F4">
-        <v>160.791</v>
+        <v>82.63</v>
       </c>
       <c r="G4">
-        <v>169.476</v>
+        <v>109.95099999999999</v>
       </c>
       <c r="H4">
-        <v>637.13199999999995</v>
+        <v>313.46899999999999</v>
       </c>
       <c r="I4">
-        <v>31.853000000000002</v>
+        <v>17.978000000000002</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,37 +1058,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>249.249</v>
+        <v>121.489</v>
       </c>
       <c r="O4">
-        <v>323.94900000000001</v>
+        <v>225.75200000000001</v>
       </c>
       <c r="P4">
-        <v>10</v>
+        <v>1.0149999999999999</v>
       </c>
       <c r="Q4">
-        <v>2.48</v>
+        <v>9.0109999999999992</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>313.18299999999999</v>
+        <v>87.716999999999999</v>
       </c>
       <c r="U4">
-        <v>25.82</v>
+        <v>15.398999999999999</v>
       </c>
       <c r="V4">
-        <v>41.386000000000003</v>
+        <v>14.336</v>
       </c>
       <c r="W4">
-        <v>-10.308</v>
+        <v>-1.5089999999999999</v>
       </c>
       <c r="X4">
-        <v>-30.67</v>
+        <v>-2.85</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,36 +1097,36 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>31.061</v>
+        <v>9.0380000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>29.414999999999999</v>
+        <v>4.2679999999999998</v>
       </c>
       <c r="D5">
-        <v>323.92899999999997</v>
+        <v>169.80600000000001</v>
       </c>
       <c r="E5">
-        <v>83.382999999999996</v>
+        <v>53.709000000000003</v>
       </c>
       <c r="F5">
-        <v>158.83199999999999</v>
+        <v>74.688000000000002</v>
       </c>
       <c r="G5">
-        <v>171.88</v>
+        <v>105.602</v>
       </c>
       <c r="H5">
-        <v>632.423</v>
+        <v>304.334</v>
       </c>
       <c r="I5">
-        <v>23.951000000000001</v>
+        <v>14.661</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1021,37 +1141,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>235.91300000000001</v>
+        <v>114.89</v>
       </c>
       <c r="O5">
-        <v>305.92500000000001</v>
+        <v>214.14400000000001</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="Q5">
-        <v>4.399</v>
+        <v>-4.9370000000000003</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>326.49799999999999</v>
+        <v>90.19</v>
       </c>
       <c r="U5">
-        <v>30.219000000000001</v>
+        <v>10.462</v>
       </c>
       <c r="V5">
-        <v>40.765999999999998</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="W5">
-        <v>-10.263999999999999</v>
+        <v>-1.5089999999999999</v>
       </c>
       <c r="X5">
-        <v>-28.315999999999999</v>
+        <v>-2.6110000000000002</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,36 +1180,36 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>29.414999999999999</v>
+        <v>4.2679999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>21.594999999999999</v>
+        <v>1.615</v>
       </c>
       <c r="D6">
-        <v>289.05599999999998</v>
+        <v>147.797</v>
       </c>
       <c r="E6">
-        <v>73.346000000000004</v>
+        <v>48.478999999999999</v>
       </c>
       <c r="F6">
-        <v>137.85400000000001</v>
+        <v>65.947000000000003</v>
       </c>
       <c r="G6">
-        <v>175.822</v>
+        <v>100.483</v>
       </c>
       <c r="H6">
-        <v>645.65</v>
+        <v>296.55900000000003</v>
       </c>
       <c r="I6">
-        <v>22.584</v>
+        <v>12.92</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1104,37 +1224,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>225.851</v>
+        <v>108.536</v>
       </c>
       <c r="O6">
-        <v>321.65300000000002</v>
+        <v>211.06100000000001</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16.056000000000001</v>
+        <v>-1.8120000000000001</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>10112</v>
+        <v>8000</v>
       </c>
       <c r="T6">
-        <v>323.99700000000001</v>
+        <v>85.498000000000005</v>
       </c>
       <c r="U6">
-        <v>46.274999999999999</v>
+        <v>8.65</v>
       </c>
       <c r="V6">
-        <v>39.540999999999997</v>
+        <v>3.5409999999999999</v>
       </c>
       <c r="W6">
-        <v>-10.220000000000001</v>
+        <v>-1.5009999999999999</v>
       </c>
       <c r="X6">
-        <v>-16.963000000000001</v>
+        <v>-3.0630000000000002</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,36 +1263,36 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>21.594999999999999</v>
+        <v>1.615</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>23.08</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="D7">
-        <v>289.46499999999997</v>
+        <v>153.30199999999999</v>
       </c>
       <c r="E7">
-        <v>75.176000000000002</v>
+        <v>46.878999999999998</v>
       </c>
       <c r="F7">
-        <v>141.38300000000001</v>
+        <v>69.28</v>
       </c>
       <c r="G7">
-        <v>190.57499999999999</v>
+        <v>111.27</v>
       </c>
       <c r="H7">
-        <v>662.80600000000004</v>
+        <v>304.19900000000001</v>
       </c>
       <c r="I7">
-        <v>19.213999999999999</v>
+        <v>12.794</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1184,40 +1304,40 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>-0.25600000000000001</v>
       </c>
       <c r="N7">
-        <v>228.583</v>
+        <v>106.675</v>
       </c>
       <c r="O7">
-        <v>326.55099999999999</v>
+        <v>213.512</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13.409000000000001</v>
+        <v>13.25</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>336.255</v>
+        <v>90.686999999999998</v>
       </c>
       <c r="U7">
-        <v>59.683999999999997</v>
+        <v>21.9</v>
       </c>
       <c r="V7">
-        <v>37.088999999999999</v>
+        <v>18.279</v>
       </c>
       <c r="W7">
-        <v>-11.726000000000001</v>
+        <v>-1.5069999999999999</v>
       </c>
       <c r="X7">
-        <v>-13.824</v>
+        <v>-1.7589999999999999</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,36 +1346,36 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>23.08</v>
+        <v>4.9400000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>33.127000000000002</v>
+        <v>11.691000000000001</v>
       </c>
       <c r="D8">
-        <v>334.87200000000001</v>
+        <v>184.18899999999999</v>
       </c>
       <c r="E8">
-        <v>86.605999999999995</v>
+        <v>53.862000000000002</v>
       </c>
       <c r="F8">
-        <v>168.87899999999999</v>
+        <v>86.983999999999995</v>
       </c>
       <c r="G8">
-        <v>210.309</v>
+        <v>139.73699999999999</v>
       </c>
       <c r="H8">
-        <v>680.774</v>
+        <v>329.32100000000003</v>
       </c>
       <c r="I8">
-        <v>29.675999999999998</v>
+        <v>15.416</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1270,37 +1390,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>240.74</v>
+        <v>128.13999999999999</v>
       </c>
       <c r="O8">
-        <v>336.46699999999998</v>
+        <v>229.428</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2.3759999999999999</v>
+        <v>24.11</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>344.30700000000002</v>
+        <v>99.893000000000001</v>
       </c>
       <c r="U8">
-        <v>62.06</v>
+        <v>46.01</v>
       </c>
       <c r="V8">
-        <v>36.515999999999998</v>
+        <v>29.321999999999999</v>
       </c>
       <c r="W8">
-        <v>-11.709</v>
+        <v>-1.5089999999999999</v>
       </c>
       <c r="X8">
-        <v>-26.617000000000001</v>
+        <v>-2.5129999999999999</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,36 +1429,36 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>33.127000000000002</v>
+        <v>11.691000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>32.210999999999999</v>
+        <v>6.7539999999999996</v>
       </c>
       <c r="D9">
-        <v>340.17899999999997</v>
+        <v>174.06299999999999</v>
       </c>
       <c r="E9">
-        <v>91.144000000000005</v>
+        <v>52.503</v>
       </c>
       <c r="F9">
-        <v>169.70099999999999</v>
+        <v>79.661000000000001</v>
       </c>
       <c r="G9">
-        <v>241.678</v>
+        <v>139.083</v>
       </c>
       <c r="H9">
-        <v>706.029</v>
+        <v>325.02199999999999</v>
       </c>
       <c r="I9">
-        <v>24.678999999999998</v>
+        <v>11.734</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1353,37 +1473,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>240.601</v>
+        <v>130.68</v>
       </c>
       <c r="O9">
-        <v>337.36900000000003</v>
+        <v>223.90100000000001</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>31.652999999999999</v>
+        <v>-1.516</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>368.66</v>
+        <v>101.121</v>
       </c>
       <c r="U9">
-        <v>93.712999999999994</v>
+        <v>44.494</v>
       </c>
       <c r="V9">
-        <v>46.506999999999998</v>
+        <v>5.7350000000000003</v>
       </c>
       <c r="W9">
-        <v>-11.673</v>
+        <v>-1.4950000000000001</v>
       </c>
       <c r="X9">
-        <v>-11.574</v>
+        <v>-5.5519999999999996</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,36 +1512,36 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>32.210999999999999</v>
+        <v>6.7539999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>22.914000000000001</v>
+        <v>3.7250000000000001</v>
       </c>
       <c r="D10">
-        <v>306.39299999999997</v>
+        <v>153.87100000000001</v>
       </c>
       <c r="E10">
-        <v>80.742999999999995</v>
+        <v>48.670999999999999</v>
       </c>
       <c r="F10">
-        <v>143.36799999999999</v>
+        <v>68.162000000000006</v>
       </c>
       <c r="G10">
-        <v>205.99199999999999</v>
+        <v>127.15300000000001</v>
       </c>
       <c r="H10">
-        <v>692.50599999999997</v>
+        <v>318.33800000000002</v>
       </c>
       <c r="I10">
-        <v>24.853999999999999</v>
+        <v>12.138</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1436,37 +1556,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>228.416</v>
+        <v>130.79300000000001</v>
       </c>
       <c r="O10">
-        <v>337.55</v>
+        <v>227.648</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>-28.631</v>
+        <v>-6.1790000000000003</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>10470</v>
+        <v>7600</v>
       </c>
       <c r="T10">
-        <v>354.95600000000002</v>
+        <v>90.69</v>
       </c>
       <c r="U10">
-        <v>65.081999999999994</v>
+        <v>38.314999999999998</v>
       </c>
       <c r="V10">
-        <v>21.806999999999999</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="W10">
-        <v>-11.64255</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-28.974</v>
+        <v>-2.0499999999999998</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,36 +1595,36 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>22.914000000000001</v>
+        <v>3.7250000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>23.178999999999998</v>
+        <v>7.274</v>
       </c>
       <c r="D11">
-        <v>299.714</v>
+        <v>155.12200000000001</v>
       </c>
       <c r="E11">
-        <v>79.091999999999999</v>
+        <v>48.204000000000001</v>
       </c>
       <c r="F11">
-        <v>144.108</v>
+        <v>71.195999999999998</v>
       </c>
       <c r="G11">
-        <v>225.20599999999999</v>
+        <v>145.364</v>
       </c>
       <c r="H11">
-        <v>707.43799999999999</v>
+        <v>331.72800000000001</v>
       </c>
       <c r="I11">
-        <v>23.077999999999999</v>
+        <v>13.96</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1519,37 +1639,37 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>233.858</v>
+        <v>133.887</v>
       </c>
       <c r="O11">
-        <v>342.47199999999998</v>
+        <v>232.36099999999999</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17.396999999999998</v>
+        <v>16.036000000000001</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>364.96600000000001</v>
+        <v>99.367000000000004</v>
       </c>
       <c r="U11">
-        <v>82.478999999999999</v>
+        <v>54.350999999999999</v>
       </c>
       <c r="V11">
-        <v>38.786000000000001</v>
+        <v>18.154</v>
       </c>
       <c r="W11">
-        <v>-13.146000000000001</v>
+        <v>-2.2469999999999999</v>
       </c>
       <c r="X11">
-        <v>-14.938000000000001</v>
+        <v>-0.77200000000000002</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,36 +1678,36 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>23.178999999999998</v>
+        <v>7.274</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>35.994</v>
+        <v>13.862</v>
       </c>
       <c r="D12">
-        <v>350.798</v>
+        <v>185.10499999999999</v>
       </c>
       <c r="E12">
-        <v>91.457999999999998</v>
+        <v>54.392000000000003</v>
       </c>
       <c r="F12">
-        <v>176.43700000000001</v>
+        <v>89.546999999999997</v>
       </c>
       <c r="G12">
-        <v>257.79199999999997</v>
+        <v>161.167</v>
       </c>
       <c r="H12">
-        <v>737.06899999999996</v>
+        <v>344.03399999999999</v>
       </c>
       <c r="I12">
-        <v>30.724</v>
+        <v>15.912000000000001</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1602,37 +1722,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>247.066</v>
+        <v>142.142</v>
       </c>
       <c r="O12">
-        <v>352.262</v>
+        <v>231.875</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9.1180000000000003</v>
+        <v>10.513999999999999</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>384.80700000000002</v>
+        <v>112.15900000000001</v>
       </c>
       <c r="U12">
-        <v>91.596999999999994</v>
+        <v>64.864999999999995</v>
       </c>
       <c r="V12">
-        <v>34.354999999999997</v>
+        <v>14.721</v>
       </c>
       <c r="W12">
-        <v>-13.15</v>
+        <v>-2.2530000000000001</v>
       </c>
       <c r="X12">
-        <v>-17.364999999999998</v>
+        <v>-1.7130000000000001</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,36 +1761,36 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>35.994</v>
+        <v>13.862</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>36.200000000000003</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D13">
-        <v>362.15499999999997</v>
+        <v>178.262</v>
       </c>
       <c r="E13">
-        <v>93.641999999999996</v>
+        <v>52.689</v>
       </c>
       <c r="F13">
-        <v>181.02</v>
+        <v>82.197000000000003</v>
       </c>
       <c r="G13">
-        <v>276.68099999999998</v>
+        <v>180.37</v>
       </c>
       <c r="H13">
-        <v>760.86400000000003</v>
+        <v>357.084</v>
       </c>
       <c r="I13">
-        <v>26.106000000000002</v>
+        <v>13.481999999999999</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1685,75 +1805,75 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>248.559</v>
+        <v>147.07</v>
       </c>
       <c r="O13">
-        <v>353.572</v>
+        <v>237.24299999999999</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25.137</v>
+        <v>-9.7989999999999995</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>407.29199999999997</v>
+        <v>119.84099999999999</v>
       </c>
       <c r="U13">
-        <v>116.73399999999999</v>
+        <v>55.066000000000003</v>
       </c>
       <c r="V13">
-        <v>54.378</v>
+        <v>25.859000000000002</v>
       </c>
       <c r="W13">
-        <v>-13.135999999999999</v>
+        <v>-2.254</v>
       </c>
       <c r="X13">
-        <v>-17.292999999999999</v>
+        <v>-2.2109999999999999</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>-27</v>
       </c>
       <c r="AA13">
-        <v>36.200000000000003</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>27.957000000000001</v>
+        <v>4.8250000000000002</v>
       </c>
       <c r="D14">
-        <v>324.70699999999999</v>
+        <v>158.524</v>
       </c>
       <c r="E14">
-        <v>85.069000000000003</v>
+        <v>39.380000000000003</v>
       </c>
       <c r="F14">
-        <v>157.35</v>
+        <v>71.650999999999996</v>
       </c>
       <c r="G14">
-        <v>274.44200000000001</v>
+        <v>161.28</v>
       </c>
       <c r="H14">
-        <v>739.21699999999998</v>
+        <v>349.904</v>
       </c>
       <c r="I14">
-        <v>23.193999999999999</v>
+        <v>12.29</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1768,75 +1888,75 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>235.792</v>
+        <v>145.02199999999999</v>
       </c>
       <c r="O14">
-        <v>300.96199999999999</v>
+        <v>211.13</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.482</v>
+        <v>4.4740000000000002</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>10649</v>
+        <v>7300</v>
       </c>
       <c r="T14">
-        <v>438.255</v>
+        <v>138.774</v>
       </c>
       <c r="U14">
-        <v>118.21599999999999</v>
+        <v>59.54</v>
       </c>
       <c r="V14">
-        <v>35.146000000000001</v>
+        <v>1.585</v>
       </c>
       <c r="W14">
-        <v>-13.0944</v>
+        <v>-2.2559999999999998</v>
       </c>
       <c r="X14">
-        <v>-26.056999999999999</v>
+        <v>-2.61</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>5.1340000000000003</v>
       </c>
       <c r="AA14">
-        <v>27.957000000000001</v>
+        <v>4.8250000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>25.765999999999998</v>
+        <v>3.6619999999999999</v>
       </c>
       <c r="D15">
-        <v>313.38799999999998</v>
+        <v>160.416</v>
       </c>
       <c r="E15">
-        <v>86.537000000000006</v>
+        <v>45.548999999999999</v>
       </c>
       <c r="F15">
-        <v>152.08000000000001</v>
+        <v>73.873999999999995</v>
       </c>
       <c r="G15">
-        <v>241.00399999999999</v>
+        <v>184.256</v>
       </c>
       <c r="H15">
-        <v>765.66099999999994</v>
+        <v>362.95600000000002</v>
       </c>
       <c r="I15">
-        <v>26.581</v>
+        <v>15.324999999999999</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1851,75 +1971,75 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>250.50200000000001</v>
+        <v>151.47300000000001</v>
       </c>
       <c r="O15">
-        <v>315.89499999999998</v>
+        <v>215.113</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>-35.087000000000003</v>
+        <v>38.347999999999999</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>449.76600000000002</v>
+        <v>147.84299999999999</v>
       </c>
       <c r="U15">
-        <v>83.129000000000005</v>
+        <v>97.888000000000005</v>
       </c>
       <c r="V15">
-        <v>41.182000000000002</v>
+        <v>21.338000000000001</v>
       </c>
       <c r="W15">
-        <v>-15.301</v>
+        <v>-2.718</v>
       </c>
       <c r="X15">
-        <v>-18.555</v>
+        <v>-2.9060000000000001</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>21.866</v>
       </c>
       <c r="AA15">
-        <v>25.765999999999998</v>
+        <v>3.6619999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>40.86</v>
+        <v>20.890999999999998</v>
       </c>
       <c r="D16">
-        <v>369.35700000000003</v>
+        <v>202.72499999999999</v>
       </c>
       <c r="E16">
-        <v>98.977000000000004</v>
+        <v>62.765000000000001</v>
       </c>
       <c r="F16">
-        <v>186.715</v>
+        <v>97.302999999999997</v>
       </c>
       <c r="G16">
-        <v>273.46499999999997</v>
+        <v>128.86099999999999</v>
       </c>
       <c r="H16">
-        <v>804.58900000000006</v>
+        <v>409.96100000000001</v>
       </c>
       <c r="I16">
-        <v>27.972000000000001</v>
+        <v>14.756</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1934,37 +2054,37 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>259.43099999999998</v>
+        <v>171.64</v>
       </c>
       <c r="O16">
-        <v>329.04700000000003</v>
+        <v>240.38399999999999</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>18.39</v>
+        <v>-76.022999999999996</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>475.54199999999997</v>
+        <v>169.577</v>
       </c>
       <c r="U16">
-        <v>101.51900000000001</v>
+        <v>21.864999999999998</v>
       </c>
       <c r="V16">
-        <v>48.829000000000001</v>
+        <v>14.433999999999999</v>
       </c>
       <c r="W16">
-        <v>-15.311</v>
+        <v>-2.7330000000000001</v>
       </c>
       <c r="X16">
-        <v>-20.390999999999998</v>
+        <v>-0.98199999999999998</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,36 +2093,36 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>40.86</v>
+        <v>20.890999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>41.121000000000002</v>
+        <v>13.632999999999999</v>
       </c>
       <c r="D17">
-        <v>384.87</v>
+        <v>203.92500000000001</v>
       </c>
       <c r="E17">
-        <v>100.622</v>
+        <v>63.357999999999997</v>
       </c>
       <c r="F17">
-        <v>196.06</v>
+        <v>98.89</v>
       </c>
       <c r="G17">
-        <v>287.34500000000003</v>
+        <v>148.375</v>
       </c>
       <c r="H17">
-        <v>826.63400000000001</v>
+        <v>427.84699999999998</v>
       </c>
       <c r="I17">
-        <v>26.292999999999999</v>
+        <v>14.378</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2017,37 +2137,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>267.85700000000003</v>
+        <v>182.48699999999999</v>
       </c>
       <c r="O17">
-        <v>335.62099999999998</v>
+        <v>248.60400000000001</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12.696999999999999</v>
+        <v>19.029</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>491.01299999999998</v>
+        <v>179.24299999999999</v>
       </c>
       <c r="U17">
-        <v>114.21599999999999</v>
+        <v>40.893999999999998</v>
       </c>
       <c r="V17">
-        <v>67.415999999999997</v>
+        <v>24.207999999999998</v>
       </c>
       <c r="W17">
-        <v>-15.333</v>
+        <v>-2.7360000000000002</v>
       </c>
       <c r="X17">
-        <v>-37.963000000000001</v>
+        <v>-1.889</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,36 +2176,36 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>41.121000000000002</v>
+        <v>13.632999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>29.917000000000002</v>
+        <v>13.869</v>
       </c>
       <c r="D18">
-        <v>343.95100000000002</v>
+        <v>183.81800000000001</v>
       </c>
       <c r="E18">
-        <v>90.087999999999994</v>
+        <v>45.469000000000001</v>
       </c>
       <c r="F18">
-        <v>168.97200000000001</v>
+        <v>84.069000000000003</v>
       </c>
       <c r="G18">
-        <v>283.95800000000003</v>
+        <v>146.80500000000001</v>
       </c>
       <c r="H18">
-        <v>808.16200000000003</v>
+        <v>418.78</v>
       </c>
       <c r="I18">
-        <v>22.878</v>
+        <v>15.438000000000001</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2100,37 +2220,37 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>252.679</v>
+        <v>187.98</v>
       </c>
       <c r="O18">
-        <v>345.48599999999999</v>
+        <v>251.23099999999999</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>-5.8440000000000003</v>
+        <v>15.843</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>10936</v>
+        <v>7800</v>
       </c>
       <c r="T18">
-        <v>462.67599999999999</v>
+        <v>167.54900000000001</v>
       </c>
       <c r="U18">
-        <v>108.372</v>
+        <v>56.737000000000002</v>
       </c>
       <c r="V18">
-        <v>36.719000000000001</v>
+        <v>11.946999999999999</v>
       </c>
       <c r="W18">
-        <v>-14.654999999999999</v>
+        <v>-2.7370000000000001</v>
       </c>
       <c r="X18">
-        <v>-29.61</v>
+        <v>-6.6589999999999998</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2139,36 +2259,36 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>29.917000000000002</v>
+        <v>13.869</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>30.280999999999999</v>
+        <v>11.595000000000001</v>
       </c>
       <c r="D19">
-        <v>330.90899999999999</v>
+        <v>183.91499999999999</v>
       </c>
       <c r="E19">
-        <v>88.486999999999995</v>
+        <v>44.308</v>
       </c>
       <c r="F19">
-        <v>162.86600000000001</v>
+        <v>83.665999999999997</v>
       </c>
       <c r="G19">
-        <v>255.23099999999999</v>
+        <v>147.28899999999999</v>
       </c>
       <c r="H19">
-        <v>801.26199999999994</v>
+        <v>418.8</v>
       </c>
       <c r="I19">
-        <v>21.425999999999998</v>
+        <v>12.859</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2183,37 +2303,37 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>244.45699999999999</v>
+        <v>188.232</v>
       </c>
       <c r="O19">
-        <v>334.28199999999998</v>
+        <v>250.16</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>-14.983000000000001</v>
+        <v>-0.84299999999999997</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>466.98</v>
+        <v>168.64</v>
       </c>
       <c r="U19">
-        <v>93.388999999999996</v>
+        <v>55.893999999999998</v>
       </c>
       <c r="V19">
-        <v>44.054000000000002</v>
+        <v>19.457999999999998</v>
       </c>
       <c r="W19">
-        <v>-17.483000000000001</v>
+        <v>-3.4359999999999999</v>
       </c>
       <c r="X19">
-        <v>-21.693000000000001</v>
+        <v>-13.486000000000001</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,36 +2342,36 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>30.280999999999999</v>
+        <v>11.595000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>45.073</v>
+        <v>18.725999999999999</v>
       </c>
       <c r="D20">
-        <v>392.15</v>
+        <v>214.32599999999999</v>
       </c>
       <c r="E20">
-        <v>102.32599999999999</v>
+        <v>48.555999999999997</v>
       </c>
       <c r="F20">
-        <v>201.941</v>
+        <v>100.032</v>
       </c>
       <c r="G20">
-        <v>299.05700000000002</v>
+        <v>162.959</v>
       </c>
       <c r="H20">
-        <v>848.76099999999997</v>
+        <v>444.20699999999999</v>
       </c>
       <c r="I20">
-        <v>28.55</v>
+        <v>12.404999999999999</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -2266,75 +2386,75 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>263.935</v>
+        <v>193.73599999999999</v>
       </c>
       <c r="O20">
-        <v>351.51799999999997</v>
+        <v>269.005</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>16.295000000000002</v>
+        <v>9.2850000000000001</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>497.24299999999999</v>
+        <v>175.202</v>
       </c>
       <c r="U20">
-        <v>109.684</v>
+        <v>65.179000000000002</v>
       </c>
       <c r="V20">
-        <v>45.201000000000001</v>
+        <v>20.940999999999999</v>
       </c>
       <c r="W20">
-        <v>-17.475999999999999</v>
+        <v>-3.4220000000000002</v>
       </c>
       <c r="X20">
-        <v>-18.992000000000001</v>
+        <v>-2.234</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>-0.629</v>
       </c>
       <c r="AA20">
-        <v>45.073</v>
+        <v>18.724</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>45.045999999999999</v>
+        <v>15.1</v>
       </c>
       <c r="D21">
-        <v>399.74599999999998</v>
+        <v>209.346</v>
       </c>
       <c r="E21">
-        <v>104.99299999999999</v>
+        <v>48.954000000000001</v>
       </c>
       <c r="F21">
-        <v>204.25700000000001</v>
+        <v>99.263000000000005</v>
       </c>
       <c r="G21">
-        <v>319.10300000000001</v>
+        <v>175.54900000000001</v>
       </c>
       <c r="H21">
-        <v>862.33900000000006</v>
+        <v>454.89800000000002</v>
       </c>
       <c r="I21">
-        <v>21.091999999999999</v>
+        <v>14.901</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2349,75 +2469,75 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>264.87400000000002</v>
+        <v>201.40199999999999</v>
       </c>
       <c r="O21">
-        <v>342.90899999999999</v>
+        <v>276.21499999999997</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>24.626000000000001</v>
+        <v>14.31</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>519.42999999999995</v>
+        <v>178.68299999999999</v>
       </c>
       <c r="U21">
-        <v>134.31</v>
+        <v>79.489000000000004</v>
       </c>
       <c r="V21">
-        <v>54.569000000000003</v>
+        <v>30.14</v>
       </c>
       <c r="W21">
-        <v>-17.477</v>
+        <v>-3.4460000000000002</v>
       </c>
       <c r="X21">
-        <v>-17.395</v>
+        <v>-13.882999999999999</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>0.629</v>
       </c>
       <c r="AA21">
-        <v>45.045999999999999</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>31.748999999999999</v>
+        <v>7.3520000000000003</v>
       </c>
       <c r="D22">
-        <v>362.5</v>
+        <v>194.83</v>
       </c>
       <c r="E22">
-        <v>93.694000000000003</v>
+        <v>47.704999999999998</v>
       </c>
       <c r="F22">
-        <v>180.26499999999999</v>
+        <v>82.296000000000006</v>
       </c>
       <c r="G22">
-        <v>269.43400000000003</v>
+        <v>136.46700000000001</v>
       </c>
       <c r="H22">
-        <v>848.65099999999995</v>
+        <v>438.42</v>
       </c>
       <c r="I22">
-        <v>24.919</v>
+        <v>17.204000000000001</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2432,75 +2552,75 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>252.98599999999999</v>
+        <v>189.66800000000001</v>
       </c>
       <c r="O22">
-        <v>324.62200000000001</v>
+        <v>261.46899999999999</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1.385</v>
       </c>
       <c r="Q22">
-        <v>0.26400000000000001</v>
+        <v>-36.423999999999999</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>11268</v>
+        <v>8000</v>
       </c>
       <c r="T22">
-        <v>524.029</v>
+        <v>176.95099999999999</v>
       </c>
       <c r="U22">
-        <v>134.57400000000001</v>
+        <v>43.064999999999998</v>
       </c>
       <c r="V22">
-        <v>52.531999999999996</v>
+        <v>6.2110000000000003</v>
       </c>
       <c r="W22">
-        <v>-17.472570000000001</v>
+        <v>-3.41</v>
       </c>
       <c r="X22">
-        <v>-39.136000000000003</v>
+        <v>-10.545999999999999</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="Z22">
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>31.748999999999999</v>
+        <v>7.3520000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>31.928000000000001</v>
+        <v>10.903</v>
       </c>
       <c r="D23">
-        <v>352.73599999999999</v>
+        <v>194.18700000000001</v>
       </c>
       <c r="E23">
-        <v>99.162000000000006</v>
+        <v>45.314999999999998</v>
       </c>
       <c r="F23">
-        <v>174.934</v>
+        <v>87.173000000000002</v>
       </c>
       <c r="G23">
-        <v>270.12099999999998</v>
+        <v>140.62299999999999</v>
       </c>
       <c r="H23">
-        <v>873.01499999999999</v>
+        <v>447.32400000000001</v>
       </c>
       <c r="I23">
-        <v>21.657</v>
+        <v>18.146000000000001</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2512,78 +2632,78 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>-0.14799999999999999</v>
       </c>
       <c r="N23">
-        <v>262.86799999999999</v>
+        <v>193.10900000000001</v>
       </c>
       <c r="O23">
-        <v>331.45600000000002</v>
+        <v>263.16899999999998</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1.2370000000000001</v>
       </c>
       <c r="Q23">
-        <v>-3.3359999999999999</v>
+        <v>10.164</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>541.55899999999997</v>
+        <v>184.155</v>
       </c>
       <c r="U23">
-        <v>131.238</v>
+        <v>53.228999999999999</v>
       </c>
       <c r="V23">
-        <v>41.344000000000001</v>
+        <v>28.312000000000001</v>
       </c>
       <c r="W23">
-        <v>-21.855</v>
+        <v>-4.2759999999999998</v>
       </c>
       <c r="X23">
-        <v>-27.614999999999998</v>
+        <v>-8.6709999999999994</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="Z23">
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>31.928000000000001</v>
+        <v>10.903</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>47.783000000000001</v>
+        <v>19.329999999999998</v>
       </c>
       <c r="D24">
-        <v>411.13299999999998</v>
+        <v>232.22200000000001</v>
       </c>
       <c r="E24">
-        <v>112.22199999999999</v>
+        <v>56.616999999999997</v>
       </c>
       <c r="F24">
-        <v>215.19</v>
+        <v>113.187</v>
       </c>
       <c r="G24">
-        <v>286.58699999999999</v>
+        <v>136.38900000000001</v>
       </c>
       <c r="H24">
-        <v>905.601</v>
+        <v>443.22199999999998</v>
       </c>
       <c r="I24">
-        <v>27.628</v>
+        <v>14.74</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2598,75 +2718,75 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>271.29899999999998</v>
+        <v>193.21</v>
       </c>
       <c r="O24">
-        <v>347.28100000000001</v>
+        <v>255.18100000000001</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="Q24">
-        <v>-4.7729999999999997</v>
+        <v>-16.007999999999999</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>558.32000000000005</v>
+        <v>188.041</v>
       </c>
       <c r="U24">
-        <v>126.465</v>
+        <v>37.220999999999997</v>
       </c>
       <c r="V24">
-        <v>55.177999999999997</v>
+        <v>6.64</v>
       </c>
       <c r="W24">
-        <v>-21.832999999999998</v>
+        <v>-4.28</v>
       </c>
       <c r="X24">
-        <v>-31.564</v>
+        <v>-17.064</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="Z24">
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>47.783000000000001</v>
+        <v>19.329999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>49.651000000000003</v>
+        <v>17.036999999999999</v>
       </c>
       <c r="D25">
-        <v>423.99400000000003</v>
+        <v>227.816</v>
       </c>
       <c r="E25">
-        <v>115.09699999999999</v>
+        <v>57.817</v>
       </c>
       <c r="F25">
-        <v>218.386</v>
+        <v>108.61</v>
       </c>
       <c r="G25">
-        <v>299.90600000000001</v>
+        <v>150.03</v>
       </c>
       <c r="H25">
-        <v>921.51499999999999</v>
+        <v>454.185</v>
       </c>
       <c r="I25">
-        <v>26.436</v>
+        <v>14.092000000000001</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2681,75 +2801,75 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>271.64600000000002</v>
+        <v>194.86500000000001</v>
       </c>
       <c r="O25">
-        <v>347.286</v>
+        <v>255.30600000000001</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="Q25">
-        <v>12.798</v>
+        <v>16.565999999999999</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>574.22900000000004</v>
+        <v>198.87899999999999</v>
       </c>
       <c r="U25">
-        <v>139.26300000000001</v>
+        <v>53.786999999999999</v>
       </c>
       <c r="V25">
-        <v>61.637</v>
+        <v>27.908999999999999</v>
       </c>
       <c r="W25">
-        <v>-21.818000000000001</v>
+        <v>-4.234</v>
       </c>
       <c r="X25">
-        <v>-33.834000000000003</v>
+        <v>-6.8739999999999997</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="Z25">
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>49.651000000000003</v>
+        <v>17.036999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>38.006999999999998</v>
+        <v>10.539</v>
       </c>
       <c r="D26">
-        <v>385.61399999999998</v>
+        <v>204.65299999999999</v>
       </c>
       <c r="E26">
-        <v>104.458</v>
+        <v>52.692999999999998</v>
       </c>
       <c r="F26">
-        <v>192.619</v>
+        <v>92.039000000000001</v>
       </c>
       <c r="G26">
-        <v>290.17099999999999</v>
+        <v>151.07300000000001</v>
       </c>
       <c r="H26">
-        <v>916.53800000000001</v>
+        <v>453.17500000000001</v>
       </c>
       <c r="I26">
-        <v>30.283999999999999</v>
+        <v>16.309000000000001</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2764,75 +2884,75 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>276.99099999999999</v>
+        <v>185.20599999999999</v>
       </c>
       <c r="O26">
-        <v>347.99299999999999</v>
+        <v>241.71600000000001</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>0.622</v>
       </c>
       <c r="Q26">
-        <v>3.5219999999999998</v>
+        <v>9.5570000000000004</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>12153</v>
+        <v>8400</v>
       </c>
       <c r="T26">
-        <v>568.54499999999996</v>
+        <v>211.459</v>
       </c>
       <c r="U26">
-        <v>142.785</v>
+        <v>63.344000000000001</v>
       </c>
       <c r="V26">
-        <v>68.366</v>
+        <v>22.34</v>
       </c>
       <c r="W26">
-        <v>-21.695599999999999</v>
+        <v>-4.2350000000000003</v>
       </c>
       <c r="X26">
-        <v>-43.357999999999997</v>
+        <v>-3.78</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>0.124</v>
       </c>
       <c r="Z26">
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>38.006999999999998</v>
+        <v>10.539</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>40.270000000000003</v>
+        <v>12.792999999999999</v>
       </c>
       <c r="D27">
-        <v>375.24700000000001</v>
+        <v>201.232</v>
       </c>
       <c r="E27">
-        <v>100.355</v>
+        <v>50.710999999999999</v>
       </c>
       <c r="F27">
-        <v>186.084</v>
+        <v>94.396000000000001</v>
       </c>
       <c r="G27">
-        <v>305.755</v>
+        <v>143.97</v>
       </c>
       <c r="H27">
-        <v>924.86500000000001</v>
+        <v>448.18400000000003</v>
       </c>
       <c r="I27">
-        <v>31.946000000000002</v>
+        <v>16.965</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2844,78 +2964,78 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>-1.6619999999999999</v>
       </c>
       <c r="N27">
-        <v>267.51499999999999</v>
+        <v>183.63499999999999</v>
       </c>
       <c r="O27">
-        <v>341.31400000000002</v>
+        <v>243.31899999999999</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>2.1219999999999999</v>
       </c>
       <c r="Q27">
-        <v>19.693000000000001</v>
+        <v>-8.35</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>583.55100000000004</v>
+        <v>204.86500000000001</v>
       </c>
       <c r="U27">
-        <v>162.47800000000001</v>
+        <v>54.994</v>
       </c>
       <c r="V27">
-        <v>56.771000000000001</v>
+        <v>17.888000000000002</v>
       </c>
       <c r="W27">
-        <v>-25.058</v>
+        <v>-5.32</v>
       </c>
       <c r="X27">
-        <v>-32.537999999999997</v>
+        <v>-18.922999999999998</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="Z27">
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>40.270000000000003</v>
+        <v>12.792999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>53.689</v>
+        <v>21.239000000000001</v>
       </c>
       <c r="D28">
-        <v>433.55500000000001</v>
+        <v>239.61799999999999</v>
       </c>
       <c r="E28">
-        <v>118.063</v>
+        <v>62.118000000000002</v>
       </c>
       <c r="F28">
-        <v>229.07499999999999</v>
+        <v>118.017</v>
       </c>
       <c r="G28">
-        <v>361.62599999999998</v>
+        <v>156.05099999999999</v>
       </c>
       <c r="H28">
-        <v>980.52599999999995</v>
+        <v>463.37400000000002</v>
       </c>
       <c r="I28">
-        <v>33.777000000000001</v>
+        <v>24.712</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2930,75 +3050,75 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>287.09699999999998</v>
+        <v>193.988</v>
       </c>
       <c r="O28">
-        <v>363.06400000000002</v>
+        <v>255.06399999999999</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>2.2829999999999999</v>
       </c>
       <c r="Q28">
-        <v>32.359000000000002</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>617.46199999999999</v>
+        <v>208.31</v>
       </c>
       <c r="U28">
-        <v>194.83699999999999</v>
+        <v>57.043999999999997</v>
       </c>
       <c r="V28">
-        <v>63.137</v>
+        <v>27.571999999999999</v>
       </c>
       <c r="W28">
-        <v>-25.059000000000001</v>
+        <v>-4.92</v>
       </c>
       <c r="X28">
-        <v>-25.268000000000001</v>
+        <v>-19.832999999999998</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>1.0129999999999999</v>
       </c>
       <c r="Z28">
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>53.689</v>
+        <v>21.239000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>51.43</v>
+        <v>18.765000000000001</v>
       </c>
       <c r="D29">
-        <v>450.44200000000001</v>
+        <v>238.11600000000001</v>
       </c>
       <c r="E29">
-        <v>127.533</v>
+        <v>61.43</v>
       </c>
       <c r="F29">
-        <v>231.661</v>
+        <v>115.087</v>
       </c>
       <c r="G29">
-        <v>282.92599999999999</v>
+        <v>176.846</v>
       </c>
       <c r="H29">
-        <v>1046.527</v>
+        <v>483.41199999999998</v>
       </c>
       <c r="I29">
-        <v>36.195</v>
+        <v>22.588999999999999</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -3013,75 +3133,75 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>308.786</v>
+        <v>196.45699999999999</v>
       </c>
       <c r="O29">
-        <v>396.08800000000002</v>
+        <v>258.75</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>2.121</v>
       </c>
       <c r="Q29">
-        <v>-81.44</v>
+        <v>24.777000000000001</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>650.43899999999996</v>
+        <v>224.66200000000001</v>
       </c>
       <c r="U29">
-        <v>113.396</v>
+        <v>81.820999999999998</v>
       </c>
       <c r="V29">
-        <v>69.478999999999999</v>
+        <v>33.078000000000003</v>
       </c>
       <c r="W29">
-        <v>-25.065000000000001</v>
+        <v>-5.0339999999999998</v>
       </c>
       <c r="X29">
-        <v>-25.568999999999999</v>
+        <v>-4.6420000000000003</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="Z29">
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>51.43</v>
+        <v>18.765000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>33.734999999999999</v>
+        <v>11.933999999999999</v>
       </c>
       <c r="D30">
-        <v>414.71300000000002</v>
+        <v>215.95400000000001</v>
       </c>
       <c r="E30">
-        <v>115.065</v>
+        <v>52.618000000000002</v>
       </c>
       <c r="F30">
-        <v>207.19399999999999</v>
+        <v>98.754999999999995</v>
       </c>
       <c r="G30">
-        <v>262.79500000000002</v>
+        <v>160.24</v>
       </c>
       <c r="H30">
-        <v>1033.663</v>
+        <v>475.22800000000001</v>
       </c>
       <c r="I30">
-        <v>26.161000000000001</v>
+        <v>19.14</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -3096,75 +3216,75 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>294.56900000000002</v>
+        <v>188.006</v>
       </c>
       <c r="O30">
-        <v>379.73899999999998</v>
+        <v>241.67500000000001</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>1.7869999999999999</v>
       </c>
       <c r="Q30">
-        <v>-6.3470000000000004</v>
+        <v>-10.541</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>13126</v>
+        <v>8500</v>
       </c>
       <c r="T30">
-        <v>653.92399999999998</v>
+        <v>233.553</v>
       </c>
       <c r="U30">
-        <v>107.05</v>
+        <v>71.28</v>
       </c>
       <c r="V30">
-        <v>45.982999999999997</v>
+        <v>10.224</v>
       </c>
       <c r="W30">
-        <v>-23.750699999999998</v>
+        <v>-5.0579999999999998</v>
       </c>
       <c r="X30">
-        <v>-46.887999999999998</v>
+        <v>-16.399999999999999</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="Z30">
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>33.734999999999999</v>
+        <v>11.933999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>48.524999999999999</v>
+        <v>13.839</v>
       </c>
       <c r="D31">
-        <v>408.74200000000002</v>
+        <v>210.078</v>
       </c>
       <c r="E31">
-        <v>113.438</v>
+        <v>53.908000000000001</v>
       </c>
       <c r="F31">
-        <v>202.59899999999999</v>
+        <v>100.125</v>
       </c>
       <c r="G31">
-        <v>240.70400000000001</v>
+        <v>161.00399999999999</v>
       </c>
       <c r="H31">
-        <v>1050.6959999999999</v>
+        <v>474.733</v>
       </c>
       <c r="I31">
-        <v>30.623999999999999</v>
+        <v>18.562000000000001</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -3176,84 +3296,84 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>-0.16400000000000001</v>
       </c>
       <c r="N31">
-        <v>299.07299999999998</v>
+        <v>184.44900000000001</v>
       </c>
       <c r="O31">
-        <v>387.93299999999999</v>
+        <v>238.185</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>1.5549999999999999</v>
       </c>
       <c r="Q31">
-        <v>-22.731000000000002</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>662.76300000000003</v>
+        <v>236.548</v>
       </c>
       <c r="U31">
-        <v>84.319000000000003</v>
+        <v>71.364999999999995</v>
       </c>
       <c r="V31">
-        <v>72.748000000000005</v>
+        <v>15.509</v>
       </c>
       <c r="W31">
-        <v>-30.602</v>
+        <v>-6.3</v>
       </c>
       <c r="X31">
-        <v>-39.826999999999998</v>
+        <v>-11.029</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="Z31">
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>48.524999999999999</v>
+        <v>13.839</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>65.542000000000002</v>
+        <v>22.738</v>
       </c>
       <c r="D32">
-        <v>480.46100000000001</v>
+        <v>284.49900000000002</v>
       </c>
       <c r="E32">
-        <v>134.03100000000001</v>
+        <v>67.602000000000004</v>
       </c>
       <c r="F32">
-        <v>249.68899999999999</v>
+        <v>138.423</v>
       </c>
       <c r="G32">
-        <v>288.47199999999998</v>
+        <v>128.441</v>
       </c>
       <c r="H32">
-        <v>1105.182</v>
+        <v>588.80799999999999</v>
       </c>
       <c r="I32">
-        <v>32.073</v>
+        <v>36.444000000000003</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>319.23099999999999</v>
+        <v>282.06</v>
       </c>
       <c r="O32">
-        <v>409.37099999999998</v>
+        <v>339.33199999999999</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>55.281999999999996</v>
       </c>
       <c r="Q32">
-        <v>3.5659999999999998</v>
+        <v>-56.093000000000004</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>695.81100000000004</v>
+        <v>249.476</v>
       </c>
       <c r="U32">
-        <v>87.885000000000005</v>
+        <v>15.272</v>
       </c>
       <c r="V32">
-        <v>57.761000000000003</v>
+        <v>36.613999999999997</v>
       </c>
       <c r="W32">
-        <v>-30.54</v>
+        <v>-6.3090000000000002</v>
       </c>
       <c r="X32">
-        <v>-30.652999999999999</v>
+        <v>45.91</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="Z32">
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>65.542000000000002</v>
+        <v>22.738</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>66.628</v>
+        <v>19.803999999999998</v>
       </c>
       <c r="D33">
-        <v>487.73899999999998</v>
+        <v>277.911</v>
       </c>
       <c r="E33">
-        <v>142.75899999999999</v>
+        <v>68.031999999999996</v>
       </c>
       <c r="F33">
-        <v>251.452</v>
+        <v>132.49600000000001</v>
       </c>
       <c r="G33">
-        <v>303.08</v>
+        <v>123.843</v>
       </c>
       <c r="H33">
-        <v>1129.5730000000001</v>
+        <v>577.30100000000004</v>
       </c>
       <c r="I33">
-        <v>29.991</v>
+        <v>20.036999999999999</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>41.5</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>309.38099999999997</v>
+        <v>259.48599999999999</v>
       </c>
       <c r="O33">
-        <v>394.815</v>
+        <v>314.24</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>42.521000000000001</v>
       </c>
       <c r="Q33">
-        <v>30.766999999999999</v>
+        <v>1.0620000000000001</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>734.75800000000004</v>
+        <v>263.06099999999998</v>
       </c>
       <c r="U33">
-        <v>118.652</v>
+        <v>16.334</v>
       </c>
       <c r="V33">
-        <v>82.765000000000001</v>
+        <v>25.489000000000001</v>
       </c>
       <c r="W33">
-        <v>-30.535</v>
+        <v>-6.3019999999999996</v>
       </c>
       <c r="X33">
-        <v>-30.73</v>
+        <v>-20.396000000000001</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="Z33">
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>66.628</v>
+        <v>19.803999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>50.968000000000004</v>
+        <v>12.553000000000001</v>
       </c>
       <c r="D34">
-        <v>444.62299999999999</v>
+        <v>248.07599999999999</v>
       </c>
       <c r="E34">
-        <v>122.47</v>
+        <v>56.884</v>
       </c>
       <c r="F34">
-        <v>223.38800000000001</v>
+        <v>115.026</v>
       </c>
       <c r="G34">
-        <v>286.02100000000002</v>
+        <v>116.83799999999999</v>
       </c>
       <c r="H34">
-        <v>1094.124</v>
+        <v>572.51700000000005</v>
       </c>
       <c r="I34">
-        <v>27.167999999999999</v>
+        <v>18.782</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>299.029</v>
+        <v>272.827</v>
       </c>
       <c r="O34">
-        <v>382.21600000000001</v>
+        <v>344.084</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>65.171000000000006</v>
       </c>
       <c r="Q34">
-        <v>-3.1669999999999998</v>
+        <v>-2.6179999999999999</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>13734</v>
+        <v>10049</v>
       </c>
       <c r="T34">
-        <v>711.90800000000002</v>
+        <v>228.43299999999999</v>
       </c>
       <c r="U34">
-        <v>115.485</v>
+        <v>13.715999999999999</v>
       </c>
       <c r="V34">
-        <v>72.998000000000005</v>
+        <v>13.132</v>
       </c>
       <c r="W34">
-        <v>-31.81653</v>
+        <v>-6.0579999999999998</v>
       </c>
       <c r="X34">
-        <v>-61.073</v>
+        <v>6.5469999999999997</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="Z34">
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>50.968000000000004</v>
+        <v>12.553000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>44.225999999999999</v>
+        <v>15.808</v>
       </c>
       <c r="D35">
-        <v>429.06900000000002</v>
+        <v>242.97200000000001</v>
       </c>
       <c r="E35">
-        <v>123.851</v>
+        <v>58.783000000000001</v>
       </c>
       <c r="F35">
-        <v>211.81100000000001</v>
+        <v>117.601</v>
       </c>
       <c r="G35">
-        <v>289.93900000000002</v>
+        <v>117.96</v>
       </c>
       <c r="H35">
-        <v>1272.0719999999999</v>
+        <v>566.91600000000005</v>
       </c>
       <c r="I35">
-        <v>27.495999999999999</v>
+        <v>18.712</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>-0.13100000000000001</v>
       </c>
       <c r="N35">
-        <v>352.71199999999999</v>
+        <v>265.30099999999999</v>
       </c>
       <c r="O35">
-        <v>552.94799999999998</v>
+        <v>338.721</v>
       </c>
       <c r="P35">
-        <v>182.22900000000001</v>
+        <v>62.475999999999999</v>
       </c>
       <c r="Q35">
-        <v>1.1220000000000001</v>
+        <v>1.2410000000000001</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>719.12400000000002</v>
+        <v>228.19499999999999</v>
       </c>
       <c r="U35">
-        <v>116.607</v>
+        <v>14.957000000000001</v>
       </c>
       <c r="V35">
-        <v>61.421999999999997</v>
+        <v>20.635999999999999</v>
       </c>
       <c r="W35">
-        <v>-34.332000000000001</v>
+        <v>-7.0259999999999998</v>
       </c>
       <c r="X35">
-        <v>-46.26</v>
+        <v>-14.308999999999999</v>
       </c>
       <c r="Y35">
-        <v>121.77500000000001</v>
+        <v>0.12</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>44.225999999999999</v>
+        <v>15.808</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>64.295000000000002</v>
+        <v>25.481999999999999</v>
       </c>
       <c r="D36">
-        <v>523.95699999999999</v>
+        <v>284.56700000000001</v>
       </c>
       <c r="E36">
-        <v>152.29400000000001</v>
+        <v>68.123000000000005</v>
       </c>
       <c r="F36">
-        <v>270.62400000000002</v>
+        <v>142.934</v>
       </c>
       <c r="G36">
-        <v>319.84500000000003</v>
+        <v>132.01499999999999</v>
       </c>
       <c r="H36">
-        <v>1729.777</v>
+        <v>578.64200000000005</v>
       </c>
       <c r="I36">
-        <v>37.643999999999998</v>
+        <v>19.245000000000001</v>
       </c>
       <c r="J36">
-        <v>335.375</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>414.34100000000001</v>
+        <v>267.76100000000002</v>
       </c>
       <c r="O36">
-        <v>977.51300000000003</v>
+        <v>341.27199999999999</v>
       </c>
       <c r="P36">
-        <v>539.44299999999998</v>
+        <v>55.399000000000001</v>
       </c>
       <c r="Q36">
-        <v>-18.140999999999998</v>
+        <v>7.6180000000000003</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>752.26400000000001</v>
+        <v>237.37</v>
       </c>
       <c r="U36">
-        <v>98.465999999999994</v>
+        <v>22.574999999999999</v>
       </c>
       <c r="V36">
-        <v>80.754000000000005</v>
+        <v>43.459000000000003</v>
       </c>
       <c r="W36">
-        <v>-34.366999999999997</v>
+        <v>-6.97</v>
       </c>
       <c r="X36">
-        <v>310.36900000000003</v>
+        <v>-32.142000000000003</v>
       </c>
       <c r="Y36">
-        <v>129.37299999999999</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>64.295000000000002</v>
+        <v>25.481999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>44.061</v>
+        <v>22.733000000000001</v>
       </c>
       <c r="D37">
-        <v>556.46600000000001</v>
+        <v>286.85199999999998</v>
       </c>
       <c r="E37">
-        <v>155.886</v>
+        <v>70.75</v>
       </c>
       <c r="F37">
-        <v>287.74799999999999</v>
+        <v>139.416</v>
       </c>
       <c r="G37">
-        <v>324.18799999999999</v>
+        <v>141.42099999999999</v>
       </c>
       <c r="H37">
-        <v>1764.7929999999999</v>
+        <v>585.52700000000004</v>
       </c>
       <c r="I37">
-        <v>32.932000000000002</v>
+        <v>16.616</v>
       </c>
       <c r="J37">
-        <v>313.5</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>410.88</v>
+        <v>260.66300000000001</v>
       </c>
       <c r="O37">
-        <v>957.89599999999996</v>
+        <v>332.29899999999998</v>
       </c>
       <c r="P37">
-        <v>523.65499999999997</v>
+        <v>45.323</v>
       </c>
       <c r="Q37">
-        <v>5.8760000000000003</v>
+        <v>3.6459999999999999</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>806.89700000000005</v>
+        <v>253.22800000000001</v>
       </c>
       <c r="U37">
-        <v>104.36199999999999</v>
+        <v>26.221</v>
       </c>
       <c r="V37">
-        <v>101.714</v>
+        <v>28.097999999999999</v>
       </c>
       <c r="W37">
-        <v>-34.393999999999998</v>
+        <v>-6.9320000000000004</v>
       </c>
       <c r="X37">
-        <v>-64.709000000000003</v>
+        <v>-19.003</v>
       </c>
       <c r="Y37">
-        <v>133.703</v>
+        <v>0.06</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>44.061</v>
+        <v>22.733000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>50.765000000000001</v>
+        <v>19.960999999999999</v>
       </c>
       <c r="D38">
-        <v>505.98500000000001</v>
+        <v>259.56700000000001</v>
       </c>
       <c r="E38">
-        <v>145.03299999999999</v>
+        <v>60.59</v>
       </c>
       <c r="F38">
-        <v>251.70099999999999</v>
+        <v>123.005</v>
       </c>
       <c r="G38">
-        <v>309.78699999999998</v>
+        <v>120.53</v>
       </c>
       <c r="H38">
-        <v>1744.376</v>
+        <v>566.49599999999998</v>
       </c>
       <c r="I38">
-        <v>35.234000000000002</v>
+        <v>15.840999999999999</v>
       </c>
       <c r="J38">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>410.03500000000003</v>
+        <v>232.75299999999999</v>
       </c>
       <c r="O38">
-        <v>928.62599999999998</v>
+        <v>301.93</v>
       </c>
       <c r="P38">
-        <v>493.26799999999997</v>
+        <v>30</v>
       </c>
       <c r="Q38">
-        <v>-10.066000000000001</v>
+        <v>-16.716999999999999</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>14952</v>
+        <v>9949</v>
       </c>
       <c r="T38">
-        <v>815.75</v>
+        <v>264.56599999999997</v>
       </c>
       <c r="U38">
-        <v>94.275999999999996</v>
+        <v>9.5039999999999996</v>
       </c>
       <c r="V38">
-        <v>75.683000000000007</v>
+        <v>18.652999999999999</v>
       </c>
       <c r="W38">
-        <v>-35.855649999999997</v>
+        <v>-6.9249999999999998</v>
       </c>
       <c r="X38">
-        <v>-87.713999999999999</v>
+        <v>-24.298999999999999</v>
       </c>
       <c r="Y38">
-        <v>135.65100000000001</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>50.765000000000001</v>
+        <v>19.960999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>43.268000000000001</v>
+        <v>17.582999999999998</v>
       </c>
       <c r="D39">
-        <v>487.90100000000001</v>
+        <v>253.041</v>
       </c>
       <c r="E39">
-        <v>145.375</v>
+        <v>60.709000000000003</v>
       </c>
       <c r="F39">
-        <v>236.749</v>
+        <v>122.066</v>
       </c>
       <c r="G39">
-        <v>304.83</v>
+        <v>125.645</v>
       </c>
       <c r="H39">
-        <v>1771.479</v>
+        <v>565.33299999999997</v>
       </c>
       <c r="I39">
-        <v>36.844000000000001</v>
+        <v>20.670999999999999</v>
       </c>
       <c r="J39">
-        <v>307.5</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="M39">
-        <v>-35.700000000000003</v>
+        <v>-0.11799999999999999</v>
       </c>
       <c r="N39">
-        <v>417.86799999999999</v>
+        <v>224.863</v>
       </c>
       <c r="O39">
-        <v>971.10799999999995</v>
+        <v>293.67</v>
       </c>
       <c r="P39">
-        <v>530.04600000000005</v>
+        <v>15</v>
       </c>
       <c r="Q39">
-        <v>-1.694</v>
+        <v>4.6449999999999996</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>800.37099999999998</v>
+        <v>271.66300000000001</v>
       </c>
       <c r="U39">
-        <v>92.581999999999994</v>
+        <v>14.148999999999999</v>
       </c>
       <c r="V39">
-        <v>91.962999999999994</v>
+        <v>28.238</v>
       </c>
       <c r="W39">
-        <v>-39.317</v>
+        <v>-8.9320000000000004</v>
       </c>
       <c r="X39">
-        <v>-21.088000000000001</v>
+        <v>-21.881</v>
       </c>
       <c r="Y39">
-        <v>140.15199999999999</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>43.268000000000001</v>
+        <v>17.582999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>75.358000000000004</v>
+        <v>27.7</v>
       </c>
       <c r="D40">
-        <v>553.32899999999995</v>
+        <v>298.803</v>
       </c>
       <c r="E40">
-        <v>152.58199999999999</v>
+        <v>71.494</v>
       </c>
       <c r="F40">
-        <v>297.70699999999999</v>
+        <v>150.375</v>
       </c>
       <c r="G40">
-        <v>363.101</v>
+        <v>146.31</v>
       </c>
       <c r="H40">
-        <v>1836.3820000000001</v>
+        <v>582.40700000000004</v>
       </c>
       <c r="I40">
-        <v>48.036999999999999</v>
+        <v>17.599</v>
       </c>
       <c r="J40">
-        <v>242.6</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>478.173</v>
+        <v>237.47</v>
       </c>
       <c r="O40">
-        <v>973.55200000000002</v>
+        <v>306.83699999999999</v>
       </c>
       <c r="P40">
-        <v>472.14</v>
+        <v>25</v>
       </c>
       <c r="Q40">
-        <v>42.247</v>
+        <v>5.1369999999999996</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>862.83</v>
+        <v>275.57</v>
       </c>
       <c r="U40">
-        <v>134.82900000000001</v>
+        <v>19.286000000000001</v>
       </c>
       <c r="V40">
-        <v>142.809</v>
+        <v>30.798999999999999</v>
       </c>
       <c r="W40">
-        <v>-26.213999999999999</v>
+        <v>-8.9239999999999995</v>
       </c>
       <c r="X40">
-        <v>-96.89</v>
+        <v>-20.756</v>
       </c>
       <c r="Y40">
-        <v>144.846</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>75.358000000000004</v>
+        <v>27.7</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>79.578999999999994</v>
+        <v>25.513000000000002</v>
       </c>
       <c r="D41">
-        <v>583.69799999999998</v>
+        <v>305.11799999999999</v>
       </c>
       <c r="E41">
-        <v>162.483</v>
+        <v>76.972999999999999</v>
       </c>
       <c r="F41">
-        <v>308.22399999999999</v>
+        <v>149.054</v>
       </c>
       <c r="G41">
-        <v>331.83600000000001</v>
+        <v>150.86099999999999</v>
       </c>
       <c r="H41">
-        <v>1806.066</v>
+        <v>607.625</v>
       </c>
       <c r="I41">
-        <v>56.393000000000001</v>
+        <v>25.693000000000001</v>
       </c>
       <c r="J41">
-        <v>154.375</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>469.13900000000001</v>
+        <v>255.65600000000001</v>
       </c>
       <c r="O41">
-        <v>873.35</v>
+        <v>321.18400000000003</v>
       </c>
       <c r="P41">
-        <v>383.69200000000001</v>
+        <v>24</v>
       </c>
       <c r="Q41">
-        <v>-39.389000000000003</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>932.71600000000001</v>
+        <v>286.44099999999997</v>
       </c>
       <c r="U41">
-        <v>95.44</v>
+        <v>20.25</v>
       </c>
       <c r="V41">
-        <v>105.83499999999999</v>
+        <v>33.381999999999998</v>
       </c>
       <c r="W41">
-        <v>-26.213999999999999</v>
+        <v>-8.8559999999999999</v>
       </c>
       <c r="X41">
-        <v>-127.52</v>
+        <v>-11.619</v>
       </c>
       <c r="Y41">
-        <v>140.79499999999999</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>79.578999999999994</v>
+        <v>25.513000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>19.206</v>
+      </c>
+      <c r="D42">
+        <v>279.928</v>
+      </c>
+      <c r="E42">
+        <v>70.433000000000007</v>
+      </c>
+      <c r="F42">
+        <v>132.30600000000001</v>
+      </c>
+      <c r="G42">
+        <v>151.02099999999999</v>
+      </c>
+      <c r="H42">
+        <v>619.01400000000001</v>
+      </c>
+      <c r="I42">
+        <v>25.94</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>26</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>246.441</v>
+      </c>
+      <c r="O42">
+        <v>321.04399999999998</v>
+      </c>
+      <c r="P42">
+        <v>26</v>
+      </c>
+      <c r="Q42">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>10330</v>
+      </c>
+      <c r="T42">
+        <v>297.97000000000003</v>
+      </c>
+      <c r="U42">
+        <v>20.913</v>
+      </c>
+      <c r="V42">
+        <v>31.634</v>
+      </c>
+      <c r="W42">
+        <v>-8.8089999999999993</v>
+      </c>
+      <c r="X42">
+        <v>-11.241</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>19.206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>18.64</v>
+      </c>
+      <c r="D43">
+        <v>271.64299999999997</v>
+      </c>
+      <c r="E43">
+        <v>69.524000000000001</v>
+      </c>
+      <c r="F43">
+        <v>130.745</v>
+      </c>
+      <c r="G43">
+        <v>147.244</v>
+      </c>
+      <c r="H43">
+        <v>614.20500000000004</v>
+      </c>
+      <c r="I43">
+        <v>23.081</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>25</v>
+      </c>
+      <c r="L43">
+        <v>-5.5</v>
+      </c>
+      <c r="M43">
+        <v>-0.02</v>
+      </c>
+      <c r="N43">
+        <v>241.916</v>
+      </c>
+      <c r="O43">
+        <v>312.98500000000001</v>
+      </c>
+      <c r="P43">
+        <v>25</v>
+      </c>
+      <c r="Q43">
+        <v>2.427</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>301.22000000000003</v>
+      </c>
+      <c r="U43">
+        <v>23.34</v>
+      </c>
+      <c r="V43">
+        <v>32.954000000000001</v>
+      </c>
+      <c r="W43">
+        <v>-10.318</v>
+      </c>
+      <c r="X43">
+        <v>-23.478000000000002</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>18.64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>31.061</v>
+      </c>
+      <c r="D44">
+        <v>320.43599999999998</v>
+      </c>
+      <c r="E44">
+        <v>83.525000000000006</v>
+      </c>
+      <c r="F44">
+        <v>160.791</v>
+      </c>
+      <c r="G44">
+        <v>169.476</v>
+      </c>
+      <c r="H44">
+        <v>637.13199999999995</v>
+      </c>
+      <c r="I44">
+        <v>31.853000000000002</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>10</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>249.249</v>
+      </c>
+      <c r="O44">
+        <v>323.94900000000001</v>
+      </c>
+      <c r="P44">
+        <v>10</v>
+      </c>
+      <c r="Q44">
+        <v>2.48</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>313.18299999999999</v>
+      </c>
+      <c r="U44">
+        <v>25.82</v>
+      </c>
+      <c r="V44">
+        <v>41.386000000000003</v>
+      </c>
+      <c r="W44">
+        <v>-10.308</v>
+      </c>
+      <c r="X44">
+        <v>-30.67</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>31.061</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>29.414999999999999</v>
+      </c>
+      <c r="D45">
+        <v>323.92899999999997</v>
+      </c>
+      <c r="E45">
+        <v>83.382999999999996</v>
+      </c>
+      <c r="F45">
+        <v>158.83199999999999</v>
+      </c>
+      <c r="G45">
+        <v>171.88</v>
+      </c>
+      <c r="H45">
+        <v>632.423</v>
+      </c>
+      <c r="I45">
+        <v>23.951000000000001</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>235.91300000000001</v>
+      </c>
+      <c r="O45">
+        <v>305.92500000000001</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>4.399</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>326.49799999999999</v>
+      </c>
+      <c r="U45">
+        <v>30.219000000000001</v>
+      </c>
+      <c r="V45">
+        <v>40.765999999999998</v>
+      </c>
+      <c r="W45">
+        <v>-10.263999999999999</v>
+      </c>
+      <c r="X45">
+        <v>-28.315999999999999</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>29.414999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>21.594999999999999</v>
+      </c>
+      <c r="D46">
+        <v>289.05599999999998</v>
+      </c>
+      <c r="E46">
+        <v>73.346000000000004</v>
+      </c>
+      <c r="F46">
+        <v>137.85400000000001</v>
+      </c>
+      <c r="G46">
+        <v>175.822</v>
+      </c>
+      <c r="H46">
+        <v>645.65</v>
+      </c>
+      <c r="I46">
+        <v>22.584</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>225.851</v>
+      </c>
+      <c r="O46">
+        <v>321.65300000000002</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>16.056000000000001</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>10112</v>
+      </c>
+      <c r="T46">
+        <v>323.99700000000001</v>
+      </c>
+      <c r="U46">
+        <v>46.274999999999999</v>
+      </c>
+      <c r="V46">
+        <v>39.540999999999997</v>
+      </c>
+      <c r="W46">
+        <v>-10.220000000000001</v>
+      </c>
+      <c r="X46">
+        <v>-16.963000000000001</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>21.594999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>23.08</v>
+      </c>
+      <c r="D47">
+        <v>289.46499999999997</v>
+      </c>
+      <c r="E47">
+        <v>75.176000000000002</v>
+      </c>
+      <c r="F47">
+        <v>141.38300000000001</v>
+      </c>
+      <c r="G47">
+        <v>190.57499999999999</v>
+      </c>
+      <c r="H47">
+        <v>662.80600000000004</v>
+      </c>
+      <c r="I47">
+        <v>19.213999999999999</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>228.583</v>
+      </c>
+      <c r="O47">
+        <v>326.55099999999999</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>13.409000000000001</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>336.255</v>
+      </c>
+      <c r="U47">
+        <v>59.683999999999997</v>
+      </c>
+      <c r="V47">
+        <v>37.088999999999999</v>
+      </c>
+      <c r="W47">
+        <v>-11.726000000000001</v>
+      </c>
+      <c r="X47">
+        <v>-13.824</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>23.08</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>33.127000000000002</v>
+      </c>
+      <c r="D48">
+        <v>334.87200000000001</v>
+      </c>
+      <c r="E48">
+        <v>86.605999999999995</v>
+      </c>
+      <c r="F48">
+        <v>168.87899999999999</v>
+      </c>
+      <c r="G48">
+        <v>210.309</v>
+      </c>
+      <c r="H48">
+        <v>680.774</v>
+      </c>
+      <c r="I48">
+        <v>29.675999999999998</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>240.74</v>
+      </c>
+      <c r="O48">
+        <v>336.46699999999998</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>2.3759999999999999</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>344.30700000000002</v>
+      </c>
+      <c r="U48">
+        <v>62.06</v>
+      </c>
+      <c r="V48">
+        <v>36.515999999999998</v>
+      </c>
+      <c r="W48">
+        <v>-11.709</v>
+      </c>
+      <c r="X48">
+        <v>-26.617000000000001</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>33.127000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>32.210999999999999</v>
+      </c>
+      <c r="D49">
+        <v>340.17899999999997</v>
+      </c>
+      <c r="E49">
+        <v>91.144000000000005</v>
+      </c>
+      <c r="F49">
+        <v>169.70099999999999</v>
+      </c>
+      <c r="G49">
+        <v>241.678</v>
+      </c>
+      <c r="H49">
+        <v>706.029</v>
+      </c>
+      <c r="I49">
+        <v>24.678999999999998</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>240.601</v>
+      </c>
+      <c r="O49">
+        <v>337.36900000000003</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>31.652999999999999</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>368.66</v>
+      </c>
+      <c r="U49">
+        <v>93.712999999999994</v>
+      </c>
+      <c r="V49">
+        <v>46.506999999999998</v>
+      </c>
+      <c r="W49">
+        <v>-11.673</v>
+      </c>
+      <c r="X49">
+        <v>-11.574</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>32.210999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>22.914000000000001</v>
+      </c>
+      <c r="D50">
+        <v>306.39299999999997</v>
+      </c>
+      <c r="E50">
+        <v>80.742999999999995</v>
+      </c>
+      <c r="F50">
+        <v>143.36799999999999</v>
+      </c>
+      <c r="G50">
+        <v>205.99199999999999</v>
+      </c>
+      <c r="H50">
+        <v>692.50599999999997</v>
+      </c>
+      <c r="I50">
+        <v>24.853999999999999</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>228.416</v>
+      </c>
+      <c r="O50">
+        <v>337.55</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>-28.631</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>10470</v>
+      </c>
+      <c r="T50">
+        <v>354.95600000000002</v>
+      </c>
+      <c r="U50">
+        <v>65.081999999999994</v>
+      </c>
+      <c r="V50">
+        <v>21.806999999999999</v>
+      </c>
+      <c r="W50">
+        <v>-11.64255</v>
+      </c>
+      <c r="X50">
+        <v>-28.974</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>22.914000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>23.178999999999998</v>
+      </c>
+      <c r="D51">
+        <v>299.714</v>
+      </c>
+      <c r="E51">
+        <v>79.091999999999999</v>
+      </c>
+      <c r="F51">
+        <v>144.108</v>
+      </c>
+      <c r="G51">
+        <v>225.20599999999999</v>
+      </c>
+      <c r="H51">
+        <v>707.43799999999999</v>
+      </c>
+      <c r="I51">
+        <v>23.077999999999999</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>233.858</v>
+      </c>
+      <c r="O51">
+        <v>342.47199999999998</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>17.396999999999998</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>364.96600000000001</v>
+      </c>
+      <c r="U51">
+        <v>82.478999999999999</v>
+      </c>
+      <c r="V51">
+        <v>38.786000000000001</v>
+      </c>
+      <c r="W51">
+        <v>-13.146000000000001</v>
+      </c>
+      <c r="X51">
+        <v>-14.938000000000001</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>23.178999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>35.994</v>
+      </c>
+      <c r="D52">
+        <v>350.798</v>
+      </c>
+      <c r="E52">
+        <v>91.457999999999998</v>
+      </c>
+      <c r="F52">
+        <v>176.43700000000001</v>
+      </c>
+      <c r="G52">
+        <v>257.79199999999997</v>
+      </c>
+      <c r="H52">
+        <v>737.06899999999996</v>
+      </c>
+      <c r="I52">
+        <v>30.724</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>247.066</v>
+      </c>
+      <c r="O52">
+        <v>352.262</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>9.1180000000000003</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>384.80700000000002</v>
+      </c>
+      <c r="U52">
+        <v>91.596999999999994</v>
+      </c>
+      <c r="V52">
+        <v>34.354999999999997</v>
+      </c>
+      <c r="W52">
+        <v>-13.15</v>
+      </c>
+      <c r="X52">
+        <v>-17.364999999999998</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>35.994</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="D53">
+        <v>362.15499999999997</v>
+      </c>
+      <c r="E53">
+        <v>93.641999999999996</v>
+      </c>
+      <c r="F53">
+        <v>181.02</v>
+      </c>
+      <c r="G53">
+        <v>276.68099999999998</v>
+      </c>
+      <c r="H53">
+        <v>760.86400000000003</v>
+      </c>
+      <c r="I53">
+        <v>26.106000000000002</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>248.559</v>
+      </c>
+      <c r="O53">
+        <v>353.572</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>25.137</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>407.29199999999997</v>
+      </c>
+      <c r="U53">
+        <v>116.73399999999999</v>
+      </c>
+      <c r="V53">
+        <v>54.378</v>
+      </c>
+      <c r="W53">
+        <v>-13.135999999999999</v>
+      </c>
+      <c r="X53">
+        <v>-17.292999999999999</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>27.957000000000001</v>
+      </c>
+      <c r="D54">
+        <v>324.70699999999999</v>
+      </c>
+      <c r="E54">
+        <v>85.069000000000003</v>
+      </c>
+      <c r="F54">
+        <v>157.35</v>
+      </c>
+      <c r="G54">
+        <v>274.44200000000001</v>
+      </c>
+      <c r="H54">
+        <v>739.21699999999998</v>
+      </c>
+      <c r="I54">
+        <v>23.193999999999999</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>235.792</v>
+      </c>
+      <c r="O54">
+        <v>300.96199999999999</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>1.482</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>10649</v>
+      </c>
+      <c r="T54">
+        <v>438.255</v>
+      </c>
+      <c r="U54">
+        <v>118.21599999999999</v>
+      </c>
+      <c r="V54">
+        <v>35.146000000000001</v>
+      </c>
+      <c r="W54">
+        <v>-13.0944</v>
+      </c>
+      <c r="X54">
+        <v>-26.056999999999999</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>27.957000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>25.765999999999998</v>
+      </c>
+      <c r="D55">
+        <v>313.38799999999998</v>
+      </c>
+      <c r="E55">
+        <v>86.537000000000006</v>
+      </c>
+      <c r="F55">
+        <v>152.08000000000001</v>
+      </c>
+      <c r="G55">
+        <v>241.00399999999999</v>
+      </c>
+      <c r="H55">
+        <v>765.66099999999994</v>
+      </c>
+      <c r="I55">
+        <v>26.581</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>250.50200000000001</v>
+      </c>
+      <c r="O55">
+        <v>315.89499999999998</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>-35.087000000000003</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>449.76600000000002</v>
+      </c>
+      <c r="U55">
+        <v>83.129000000000005</v>
+      </c>
+      <c r="V55">
+        <v>41.182000000000002</v>
+      </c>
+      <c r="W55">
+        <v>-15.301</v>
+      </c>
+      <c r="X55">
+        <v>-18.555</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>25.765999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>40.86</v>
+      </c>
+      <c r="D56">
+        <v>369.35700000000003</v>
+      </c>
+      <c r="E56">
+        <v>98.977000000000004</v>
+      </c>
+      <c r="F56">
+        <v>186.715</v>
+      </c>
+      <c r="G56">
+        <v>273.46499999999997</v>
+      </c>
+      <c r="H56">
+        <v>804.58900000000006</v>
+      </c>
+      <c r="I56">
+        <v>27.972000000000001</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>259.43099999999998</v>
+      </c>
+      <c r="O56">
+        <v>329.04700000000003</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>18.39</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>475.54199999999997</v>
+      </c>
+      <c r="U56">
+        <v>101.51900000000001</v>
+      </c>
+      <c r="V56">
+        <v>48.829000000000001</v>
+      </c>
+      <c r="W56">
+        <v>-15.311</v>
+      </c>
+      <c r="X56">
+        <v>-20.390999999999998</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>40.86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>41.121000000000002</v>
+      </c>
+      <c r="D57">
+        <v>384.87</v>
+      </c>
+      <c r="E57">
+        <v>100.622</v>
+      </c>
+      <c r="F57">
+        <v>196.06</v>
+      </c>
+      <c r="G57">
+        <v>287.34500000000003</v>
+      </c>
+      <c r="H57">
+        <v>826.63400000000001</v>
+      </c>
+      <c r="I57">
+        <v>26.292999999999999</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>267.85700000000003</v>
+      </c>
+      <c r="O57">
+        <v>335.62099999999998</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>12.696999999999999</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>491.01299999999998</v>
+      </c>
+      <c r="U57">
+        <v>114.21599999999999</v>
+      </c>
+      <c r="V57">
+        <v>67.415999999999997</v>
+      </c>
+      <c r="W57">
+        <v>-15.333</v>
+      </c>
+      <c r="X57">
+        <v>-37.963000000000001</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>41.121000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>29.917000000000002</v>
+      </c>
+      <c r="D58">
+        <v>343.95100000000002</v>
+      </c>
+      <c r="E58">
+        <v>90.087999999999994</v>
+      </c>
+      <c r="F58">
+        <v>168.97200000000001</v>
+      </c>
+      <c r="G58">
+        <v>283.95800000000003</v>
+      </c>
+      <c r="H58">
+        <v>808.16200000000003</v>
+      </c>
+      <c r="I58">
+        <v>22.878</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>252.679</v>
+      </c>
+      <c r="O58">
+        <v>345.48599999999999</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>-5.8440000000000003</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>10936</v>
+      </c>
+      <c r="T58">
+        <v>462.67599999999999</v>
+      </c>
+      <c r="U58">
+        <v>108.372</v>
+      </c>
+      <c r="V58">
+        <v>36.719000000000001</v>
+      </c>
+      <c r="W58">
+        <v>-14.654999999999999</v>
+      </c>
+      <c r="X58">
+        <v>-29.61</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>29.917000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>30.280999999999999</v>
+      </c>
+      <c r="D59">
+        <v>330.90899999999999</v>
+      </c>
+      <c r="E59">
+        <v>88.486999999999995</v>
+      </c>
+      <c r="F59">
+        <v>162.86600000000001</v>
+      </c>
+      <c r="G59">
+        <v>255.23099999999999</v>
+      </c>
+      <c r="H59">
+        <v>801.26199999999994</v>
+      </c>
+      <c r="I59">
+        <v>21.425999999999998</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>244.45699999999999</v>
+      </c>
+      <c r="O59">
+        <v>334.28199999999998</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>-14.983000000000001</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>466.98</v>
+      </c>
+      <c r="U59">
+        <v>93.388999999999996</v>
+      </c>
+      <c r="V59">
+        <v>44.054000000000002</v>
+      </c>
+      <c r="W59">
+        <v>-17.483000000000001</v>
+      </c>
+      <c r="X59">
+        <v>-21.693000000000001</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>30.280999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>45.073</v>
+      </c>
+      <c r="D60">
+        <v>392.15</v>
+      </c>
+      <c r="E60">
+        <v>102.32599999999999</v>
+      </c>
+      <c r="F60">
+        <v>201.941</v>
+      </c>
+      <c r="G60">
+        <v>299.05700000000002</v>
+      </c>
+      <c r="H60">
+        <v>848.76099999999997</v>
+      </c>
+      <c r="I60">
+        <v>28.55</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>263.935</v>
+      </c>
+      <c r="O60">
+        <v>351.51799999999997</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>16.295000000000002</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>497.24299999999999</v>
+      </c>
+      <c r="U60">
+        <v>109.684</v>
+      </c>
+      <c r="V60">
+        <v>45.201000000000001</v>
+      </c>
+      <c r="W60">
+        <v>-17.475999999999999</v>
+      </c>
+      <c r="X60">
+        <v>-18.992000000000001</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>45.073</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>45.045999999999999</v>
+      </c>
+      <c r="D61">
+        <v>399.74599999999998</v>
+      </c>
+      <c r="E61">
+        <v>104.99299999999999</v>
+      </c>
+      <c r="F61">
+        <v>204.25700000000001</v>
+      </c>
+      <c r="G61">
+        <v>319.10300000000001</v>
+      </c>
+      <c r="H61">
+        <v>862.33900000000006</v>
+      </c>
+      <c r="I61">
+        <v>21.091999999999999</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>264.87400000000002</v>
+      </c>
+      <c r="O61">
+        <v>342.90899999999999</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>24.626000000000001</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>519.42999999999995</v>
+      </c>
+      <c r="U61">
+        <v>134.31</v>
+      </c>
+      <c r="V61">
+        <v>54.569000000000003</v>
+      </c>
+      <c r="W61">
+        <v>-17.477</v>
+      </c>
+      <c r="X61">
+        <v>-17.395</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>45.045999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>31.748999999999999</v>
+      </c>
+      <c r="D62">
+        <v>362.5</v>
+      </c>
+      <c r="E62">
+        <v>93.694000000000003</v>
+      </c>
+      <c r="F62">
+        <v>180.26499999999999</v>
+      </c>
+      <c r="G62">
+        <v>269.43400000000003</v>
+      </c>
+      <c r="H62">
+        <v>848.65099999999995</v>
+      </c>
+      <c r="I62">
+        <v>24.919</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>252.98599999999999</v>
+      </c>
+      <c r="O62">
+        <v>324.62200000000001</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>11268</v>
+      </c>
+      <c r="T62">
+        <v>524.029</v>
+      </c>
+      <c r="U62">
+        <v>134.57400000000001</v>
+      </c>
+      <c r="V62">
+        <v>52.531999999999996</v>
+      </c>
+      <c r="W62">
+        <v>-17.472570000000001</v>
+      </c>
+      <c r="X62">
+        <v>-39.136000000000003</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>31.748999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>31.928000000000001</v>
+      </c>
+      <c r="D63">
+        <v>352.73599999999999</v>
+      </c>
+      <c r="E63">
+        <v>99.162000000000006</v>
+      </c>
+      <c r="F63">
+        <v>174.934</v>
+      </c>
+      <c r="G63">
+        <v>270.12099999999998</v>
+      </c>
+      <c r="H63">
+        <v>873.01499999999999</v>
+      </c>
+      <c r="I63">
+        <v>21.657</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>262.86799999999999</v>
+      </c>
+      <c r="O63">
+        <v>331.45600000000002</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>-3.3359999999999999</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>541.55899999999997</v>
+      </c>
+      <c r="U63">
+        <v>131.238</v>
+      </c>
+      <c r="V63">
+        <v>41.344000000000001</v>
+      </c>
+      <c r="W63">
+        <v>-21.855</v>
+      </c>
+      <c r="X63">
+        <v>-27.614999999999998</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>31.928000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>47.783000000000001</v>
+      </c>
+      <c r="D64">
+        <v>411.13299999999998</v>
+      </c>
+      <c r="E64">
+        <v>112.22199999999999</v>
+      </c>
+      <c r="F64">
+        <v>215.19</v>
+      </c>
+      <c r="G64">
+        <v>286.58699999999999</v>
+      </c>
+      <c r="H64">
+        <v>905.601</v>
+      </c>
+      <c r="I64">
+        <v>27.628</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>271.29899999999998</v>
+      </c>
+      <c r="O64">
+        <v>347.28100000000001</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>-4.7729999999999997</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>558.32000000000005</v>
+      </c>
+      <c r="U64">
+        <v>126.465</v>
+      </c>
+      <c r="V64">
+        <v>55.177999999999997</v>
+      </c>
+      <c r="W64">
+        <v>-21.832999999999998</v>
+      </c>
+      <c r="X64">
+        <v>-31.564</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>47.783000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>49.651000000000003</v>
+      </c>
+      <c r="D65">
+        <v>423.99400000000003</v>
+      </c>
+      <c r="E65">
+        <v>115.09699999999999</v>
+      </c>
+      <c r="F65">
+        <v>218.386</v>
+      </c>
+      <c r="G65">
+        <v>299.90600000000001</v>
+      </c>
+      <c r="H65">
+        <v>921.51499999999999</v>
+      </c>
+      <c r="I65">
+        <v>26.436</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>271.64600000000002</v>
+      </c>
+      <c r="O65">
+        <v>347.286</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>12.798</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>574.22900000000004</v>
+      </c>
+      <c r="U65">
+        <v>139.26300000000001</v>
+      </c>
+      <c r="V65">
+        <v>61.637</v>
+      </c>
+      <c r="W65">
+        <v>-21.818000000000001</v>
+      </c>
+      <c r="X65">
+        <v>-33.834000000000003</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>49.651000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>38.006999999999998</v>
+      </c>
+      <c r="D66">
+        <v>385.61399999999998</v>
+      </c>
+      <c r="E66">
+        <v>104.458</v>
+      </c>
+      <c r="F66">
+        <v>192.619</v>
+      </c>
+      <c r="G66">
+        <v>290.17099999999999</v>
+      </c>
+      <c r="H66">
+        <v>916.53800000000001</v>
+      </c>
+      <c r="I66">
+        <v>30.283999999999999</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>276.99099999999999</v>
+      </c>
+      <c r="O66">
+        <v>347.99299999999999</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>3.5219999999999998</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>12153</v>
+      </c>
+      <c r="T66">
+        <v>568.54499999999996</v>
+      </c>
+      <c r="U66">
+        <v>142.785</v>
+      </c>
+      <c r="V66">
+        <v>68.366</v>
+      </c>
+      <c r="W66">
+        <v>-21.695599999999999</v>
+      </c>
+      <c r="X66">
+        <v>-43.357999999999997</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>38.006999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>40.270000000000003</v>
+      </c>
+      <c r="D67">
+        <v>375.24700000000001</v>
+      </c>
+      <c r="E67">
+        <v>100.355</v>
+      </c>
+      <c r="F67">
+        <v>186.084</v>
+      </c>
+      <c r="G67">
+        <v>305.755</v>
+      </c>
+      <c r="H67">
+        <v>924.86500000000001</v>
+      </c>
+      <c r="I67">
+        <v>31.946000000000002</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>267.51499999999999</v>
+      </c>
+      <c r="O67">
+        <v>341.31400000000002</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>19.693000000000001</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>583.55100000000004</v>
+      </c>
+      <c r="U67">
+        <v>162.47800000000001</v>
+      </c>
+      <c r="V67">
+        <v>56.771000000000001</v>
+      </c>
+      <c r="W67">
+        <v>-25.058</v>
+      </c>
+      <c r="X67">
+        <v>-32.537999999999997</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>40.270000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>53.689</v>
+      </c>
+      <c r="D68">
+        <v>433.55500000000001</v>
+      </c>
+      <c r="E68">
+        <v>118.063</v>
+      </c>
+      <c r="F68">
+        <v>229.07499999999999</v>
+      </c>
+      <c r="G68">
+        <v>361.62599999999998</v>
+      </c>
+      <c r="H68">
+        <v>980.52599999999995</v>
+      </c>
+      <c r="I68">
+        <v>33.777000000000001</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>287.09699999999998</v>
+      </c>
+      <c r="O68">
+        <v>363.06400000000002</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>32.359000000000002</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>617.46199999999999</v>
+      </c>
+      <c r="U68">
+        <v>194.83699999999999</v>
+      </c>
+      <c r="V68">
+        <v>63.137</v>
+      </c>
+      <c r="W68">
+        <v>-25.059000000000001</v>
+      </c>
+      <c r="X68">
+        <v>-25.268000000000001</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>53.689</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>51.43</v>
+      </c>
+      <c r="D69">
+        <v>450.44200000000001</v>
+      </c>
+      <c r="E69">
+        <v>127.533</v>
+      </c>
+      <c r="F69">
+        <v>231.661</v>
+      </c>
+      <c r="G69">
+        <v>282.92599999999999</v>
+      </c>
+      <c r="H69">
+        <v>1046.527</v>
+      </c>
+      <c r="I69">
+        <v>36.195</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>308.786</v>
+      </c>
+      <c r="O69">
+        <v>396.08800000000002</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>-81.44</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>650.43899999999996</v>
+      </c>
+      <c r="U69">
+        <v>113.396</v>
+      </c>
+      <c r="V69">
+        <v>69.478999999999999</v>
+      </c>
+      <c r="W69">
+        <v>-25.065000000000001</v>
+      </c>
+      <c r="X69">
+        <v>-25.568999999999999</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>51.43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>33.734999999999999</v>
+      </c>
+      <c r="D70">
+        <v>414.71300000000002</v>
+      </c>
+      <c r="E70">
+        <v>115.065</v>
+      </c>
+      <c r="F70">
+        <v>207.19399999999999</v>
+      </c>
+      <c r="G70">
+        <v>262.79500000000002</v>
+      </c>
+      <c r="H70">
+        <v>1033.663</v>
+      </c>
+      <c r="I70">
+        <v>26.161000000000001</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>294.56900000000002</v>
+      </c>
+      <c r="O70">
+        <v>379.73899999999998</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>-6.3470000000000004</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>13126</v>
+      </c>
+      <c r="T70">
+        <v>653.92399999999998</v>
+      </c>
+      <c r="U70">
+        <v>107.05</v>
+      </c>
+      <c r="V70">
+        <v>45.982999999999997</v>
+      </c>
+      <c r="W70">
+        <v>-23.750699999999998</v>
+      </c>
+      <c r="X70">
+        <v>-46.887999999999998</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>33.734999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>48.524999999999999</v>
+      </c>
+      <c r="D71">
+        <v>408.74200000000002</v>
+      </c>
+      <c r="E71">
+        <v>113.438</v>
+      </c>
+      <c r="F71">
+        <v>202.59899999999999</v>
+      </c>
+      <c r="G71">
+        <v>240.70400000000001</v>
+      </c>
+      <c r="H71">
+        <v>1050.6959999999999</v>
+      </c>
+      <c r="I71">
+        <v>30.623999999999999</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>299.07299999999998</v>
+      </c>
+      <c r="O71">
+        <v>387.93299999999999</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>-22.731000000000002</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>662.76300000000003</v>
+      </c>
+      <c r="U71">
+        <v>84.319000000000003</v>
+      </c>
+      <c r="V71">
+        <v>72.748000000000005</v>
+      </c>
+      <c r="W71">
+        <v>-30.602</v>
+      </c>
+      <c r="X71">
+        <v>-39.826999999999998</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>48.524999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>65.542000000000002</v>
+      </c>
+      <c r="D72">
+        <v>480.46100000000001</v>
+      </c>
+      <c r="E72">
+        <v>134.03100000000001</v>
+      </c>
+      <c r="F72">
+        <v>249.68899999999999</v>
+      </c>
+      <c r="G72">
+        <v>288.47199999999998</v>
+      </c>
+      <c r="H72">
+        <v>1105.182</v>
+      </c>
+      <c r="I72">
+        <v>32.073</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>319.23099999999999</v>
+      </c>
+      <c r="O72">
+        <v>409.37099999999998</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>3.5659999999999998</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>695.81100000000004</v>
+      </c>
+      <c r="U72">
+        <v>87.885000000000005</v>
+      </c>
+      <c r="V72">
+        <v>57.761000000000003</v>
+      </c>
+      <c r="W72">
+        <v>-30.54</v>
+      </c>
+      <c r="X72">
+        <v>-30.652999999999999</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>65.542000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>66.628</v>
+      </c>
+      <c r="D73">
+        <v>487.73899999999998</v>
+      </c>
+      <c r="E73">
+        <v>142.75899999999999</v>
+      </c>
+      <c r="F73">
+        <v>251.452</v>
+      </c>
+      <c r="G73">
+        <v>303.08</v>
+      </c>
+      <c r="H73">
+        <v>1129.5730000000001</v>
+      </c>
+      <c r="I73">
+        <v>29.991</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>309.38099999999997</v>
+      </c>
+      <c r="O73">
+        <v>394.815</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>30.766999999999999</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>734.75800000000004</v>
+      </c>
+      <c r="U73">
+        <v>118.652</v>
+      </c>
+      <c r="V73">
+        <v>82.765000000000001</v>
+      </c>
+      <c r="W73">
+        <v>-30.535</v>
+      </c>
+      <c r="X73">
+        <v>-30.73</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>66.628</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>50.968000000000004</v>
+      </c>
+      <c r="D74">
+        <v>444.62299999999999</v>
+      </c>
+      <c r="E74">
+        <v>122.47</v>
+      </c>
+      <c r="F74">
+        <v>223.38800000000001</v>
+      </c>
+      <c r="G74">
+        <v>286.02100000000002</v>
+      </c>
+      <c r="H74">
+        <v>1094.124</v>
+      </c>
+      <c r="I74">
+        <v>27.167999999999999</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>299.029</v>
+      </c>
+      <c r="O74">
+        <v>382.21600000000001</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>-3.1669999999999998</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>13734</v>
+      </c>
+      <c r="T74">
+        <v>711.90800000000002</v>
+      </c>
+      <c r="U74">
+        <v>115.485</v>
+      </c>
+      <c r="V74">
+        <v>72.998000000000005</v>
+      </c>
+      <c r="W74">
+        <v>-31.81653</v>
+      </c>
+      <c r="X74">
+        <v>-61.073</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>50.968000000000004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>44.225999999999999</v>
+      </c>
+      <c r="D75">
+        <v>429.06900000000002</v>
+      </c>
+      <c r="E75">
+        <v>123.851</v>
+      </c>
+      <c r="F75">
+        <v>211.81100000000001</v>
+      </c>
+      <c r="G75">
+        <v>289.93900000000002</v>
+      </c>
+      <c r="H75">
+        <v>1272.0719999999999</v>
+      </c>
+      <c r="I75">
+        <v>27.495999999999999</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>352.71199999999999</v>
+      </c>
+      <c r="O75">
+        <v>552.94799999999998</v>
+      </c>
+      <c r="P75">
+        <v>182.22900000000001</v>
+      </c>
+      <c r="Q75">
+        <v>1.1220000000000001</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>719.12400000000002</v>
+      </c>
+      <c r="U75">
+        <v>116.607</v>
+      </c>
+      <c r="V75">
+        <v>61.421999999999997</v>
+      </c>
+      <c r="W75">
+        <v>-34.332000000000001</v>
+      </c>
+      <c r="X75">
+        <v>-46.26</v>
+      </c>
+      <c r="Y75">
+        <v>121.77500000000001</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>44.225999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>64.295000000000002</v>
+      </c>
+      <c r="D76">
+        <v>523.95699999999999</v>
+      </c>
+      <c r="E76">
+        <v>152.29400000000001</v>
+      </c>
+      <c r="F76">
+        <v>270.62400000000002</v>
+      </c>
+      <c r="G76">
+        <v>319.84500000000003</v>
+      </c>
+      <c r="H76">
+        <v>1729.777</v>
+      </c>
+      <c r="I76">
+        <v>37.643999999999998</v>
+      </c>
+      <c r="J76">
+        <v>335.375</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>414.34100000000001</v>
+      </c>
+      <c r="O76">
+        <v>977.51300000000003</v>
+      </c>
+      <c r="P76">
+        <v>539.44299999999998</v>
+      </c>
+      <c r="Q76">
+        <v>-18.140999999999998</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>752.26400000000001</v>
+      </c>
+      <c r="U76">
+        <v>98.465999999999994</v>
+      </c>
+      <c r="V76">
+        <v>80.754000000000005</v>
+      </c>
+      <c r="W76">
+        <v>-34.366999999999997</v>
+      </c>
+      <c r="X76">
+        <v>310.36900000000003</v>
+      </c>
+      <c r="Y76">
+        <v>129.37299999999999</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>64.295000000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>44.061</v>
+      </c>
+      <c r="D77">
+        <v>556.46600000000001</v>
+      </c>
+      <c r="E77">
+        <v>155.886</v>
+      </c>
+      <c r="F77">
+        <v>287.74799999999999</v>
+      </c>
+      <c r="G77">
+        <v>324.18799999999999</v>
+      </c>
+      <c r="H77">
+        <v>1764.7929999999999</v>
+      </c>
+      <c r="I77">
+        <v>32.932000000000002</v>
+      </c>
+      <c r="J77">
+        <v>313.5</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>410.88</v>
+      </c>
+      <c r="O77">
+        <v>957.89599999999996</v>
+      </c>
+      <c r="P77">
+        <v>523.65499999999997</v>
+      </c>
+      <c r="Q77">
+        <v>5.8760000000000003</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>806.89700000000005</v>
+      </c>
+      <c r="U77">
+        <v>104.36199999999999</v>
+      </c>
+      <c r="V77">
+        <v>101.714</v>
+      </c>
+      <c r="W77">
+        <v>-34.393999999999998</v>
+      </c>
+      <c r="X77">
+        <v>-64.709000000000003</v>
+      </c>
+      <c r="Y77">
+        <v>133.703</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>44.061</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>50.765000000000001</v>
+      </c>
+      <c r="D78">
+        <v>505.98500000000001</v>
+      </c>
+      <c r="E78">
+        <v>145.03299999999999</v>
+      </c>
+      <c r="F78">
+        <v>251.70099999999999</v>
+      </c>
+      <c r="G78">
+        <v>309.78699999999998</v>
+      </c>
+      <c r="H78">
+        <v>1744.376</v>
+      </c>
+      <c r="I78">
+        <v>35.234000000000002</v>
+      </c>
+      <c r="J78">
+        <v>279</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>410.03500000000003</v>
+      </c>
+      <c r="O78">
+        <v>928.62599999999998</v>
+      </c>
+      <c r="P78">
+        <v>493.26799999999997</v>
+      </c>
+      <c r="Q78">
+        <v>-10.066000000000001</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>14952</v>
+      </c>
+      <c r="T78">
+        <v>815.75</v>
+      </c>
+      <c r="U78">
+        <v>94.275999999999996</v>
+      </c>
+      <c r="V78">
+        <v>75.683000000000007</v>
+      </c>
+      <c r="W78">
+        <v>-35.855649999999997</v>
+      </c>
+      <c r="X78">
+        <v>-87.713999999999999</v>
+      </c>
+      <c r="Y78">
+        <v>135.65100000000001</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>50.765000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>43.268000000000001</v>
+      </c>
+      <c r="D79">
+        <v>487.90100000000001</v>
+      </c>
+      <c r="E79">
+        <v>145.375</v>
+      </c>
+      <c r="F79">
+        <v>236.749</v>
+      </c>
+      <c r="G79">
+        <v>304.83</v>
+      </c>
+      <c r="H79">
+        <v>1771.479</v>
+      </c>
+      <c r="I79">
+        <v>36.844000000000001</v>
+      </c>
+      <c r="J79">
+        <v>307.5</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="N79">
+        <v>417.86799999999999</v>
+      </c>
+      <c r="O79">
+        <v>971.10799999999995</v>
+      </c>
+      <c r="P79">
+        <v>530.04600000000005</v>
+      </c>
+      <c r="Q79">
+        <v>-1.694</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>800.37099999999998</v>
+      </c>
+      <c r="U79">
+        <v>92.581999999999994</v>
+      </c>
+      <c r="V79">
+        <v>91.962999999999994</v>
+      </c>
+      <c r="W79">
+        <v>-39.317</v>
+      </c>
+      <c r="X79">
+        <v>-21.088000000000001</v>
+      </c>
+      <c r="Y79">
+        <v>140.15199999999999</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>43.268000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>75.358000000000004</v>
+      </c>
+      <c r="D80">
+        <v>553.32899999999995</v>
+      </c>
+      <c r="E80">
+        <v>152.58199999999999</v>
+      </c>
+      <c r="F80">
+        <v>297.70699999999999</v>
+      </c>
+      <c r="G80">
+        <v>363.101</v>
+      </c>
+      <c r="H80">
+        <v>1836.3820000000001</v>
+      </c>
+      <c r="I80">
+        <v>48.036999999999999</v>
+      </c>
+      <c r="J80">
+        <v>242.6</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>478.173</v>
+      </c>
+      <c r="O80">
+        <v>973.55200000000002</v>
+      </c>
+      <c r="P80">
+        <v>472.14</v>
+      </c>
+      <c r="Q80">
+        <v>42.247</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>862.83</v>
+      </c>
+      <c r="U80">
+        <v>134.82900000000001</v>
+      </c>
+      <c r="V80">
+        <v>142.809</v>
+      </c>
+      <c r="W80">
+        <v>-26.213999999999999</v>
+      </c>
+      <c r="X80">
+        <v>-96.89</v>
+      </c>
+      <c r="Y80">
+        <v>144.846</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>75.358000000000004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>79.578999999999994</v>
+      </c>
+      <c r="D81">
+        <v>583.69799999999998</v>
+      </c>
+      <c r="E81">
+        <v>162.483</v>
+      </c>
+      <c r="F81">
+        <v>308.22399999999999</v>
+      </c>
+      <c r="G81">
+        <v>331.83600000000001</v>
+      </c>
+      <c r="H81">
+        <v>1806.066</v>
+      </c>
+      <c r="I81">
+        <v>56.393000000000001</v>
+      </c>
+      <c r="J81">
+        <v>154.375</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>469.13900000000001</v>
+      </c>
+      <c r="O81">
+        <v>873.35</v>
+      </c>
+      <c r="P81">
+        <v>383.69200000000001</v>
+      </c>
+      <c r="Q81">
+        <v>-39.389000000000003</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>932.71600000000001</v>
+      </c>
+      <c r="U81">
+        <v>95.44</v>
+      </c>
+      <c r="V81">
+        <v>105.83499999999999</v>
+      </c>
+      <c r="W81">
+        <v>-26.213999999999999</v>
+      </c>
+      <c r="X81">
+        <v>-127.52</v>
+      </c>
+      <c r="Y81">
+        <v>140.79499999999999</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>79.578999999999994</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>62.619</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>536.29200000000003</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>150.053</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>269.94799999999998</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>314.77699999999999</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>1845.9</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>64.596000000000004</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>185.81200000000001</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>472.51100000000002</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>904.54</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>417.14499999999998</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>3.0369999999999999</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>15616</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>941.36</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>98.477000000000004</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>95.177999999999997</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-24.972819999999999</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-35.774999999999999</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>140.89699999999999</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>62.619</v>
       </c>
     </row>
